--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="6" r:id="rId1"/>
@@ -16,8 +16,11 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Code</t>
   </si>
@@ -105,18 +108,36 @@
   </si>
   <si>
     <t>W15000P17</t>
+  </si>
+  <si>
+    <t>Salam Sunanda 2</t>
+  </si>
+  <si>
+    <t>Keisham Kamala</t>
+  </si>
+  <si>
+    <t>L20000W17P1400-WED</t>
+  </si>
+  <si>
+    <t>L20000W17P1400-SAT</t>
+  </si>
+  <si>
+    <t>Moirangthem Naobi</t>
+  </si>
+  <si>
+    <t>L50000W48P1750-FRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +268,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -261,22 +282,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,31 +315,31 @@
     <xf numFmtId="15" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -353,7 +374,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -423,18 +444,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>38</v>
+            <v>32</v>
           </cell>
           <cell r="O1">
-            <v>2200</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>22</v>
+            <v>28</v>
           </cell>
           <cell r="O2">
-            <v>3800</v>
+            <v>3200</v>
           </cell>
         </row>
         <row r="3">
@@ -449,7 +470,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -463,18 +484,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>61</v>
+            <v>55</v>
           </cell>
           <cell r="O1">
-            <v>5900</v>
+            <v>6500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>59</v>
+            <v>65</v>
           </cell>
           <cell r="O2">
-            <v>6100</v>
+            <v>5500</v>
           </cell>
         </row>
         <row r="3">
@@ -489,7 +510,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -503,18 +524,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>66</v>
+            <v>59</v>
           </cell>
           <cell r="O1">
-            <v>5400</v>
+            <v>6100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>54</v>
+            <v>61</v>
           </cell>
           <cell r="O2">
-            <v>6600</v>
+            <v>5900</v>
           </cell>
         </row>
         <row r="3">
@@ -529,7 +550,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -543,18 +564,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="O1">
-            <v>5000</v>
+            <v>5700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>7000</v>
+            <v>6300</v>
           </cell>
         </row>
         <row r="3">
@@ -569,7 +590,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -583,18 +604,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="O1">
-            <v>2900</v>
+            <v>3600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>9100</v>
+            <v>8400</v>
           </cell>
         </row>
         <row r="3">
@@ -609,7 +630,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -623,18 +644,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>1200</v>
+            <v>2250</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -643,6 +664,123 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="K1">
+            <v>17</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>24000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.15-DEc"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>17</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>24000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD50000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>50000</v>
+          </cell>
+          <cell r="K1">
+            <v>48</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>84000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -903,32 +1041,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
@@ -938,7 +1076,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="22.5" customHeight="1">
+    <row r="2" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
@@ -950,11 +1088,11 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L18)</f>
-        <v>49400</v>
+        <v>177050</v>
       </c>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -964,7 +1102,7 @@
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="40.5" customHeight="1">
+    <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="22.5" customHeight="1">
+    <row r="5" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1042,7 +1180,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22.5" customHeight="1">
+    <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -1082,7 +1220,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="22.5" customHeight="1">
+    <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1098,11 +1236,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1115,14 +1253,14 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>5900</v>
+        <v>6500</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="22.5" customHeight="1">
+    <row r="8" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -1138,11 +1276,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1155,14 +1293,14 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>6600</v>
+        <v>5900</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>5400</v>
+        <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="22.5" customHeight="1">
+    <row r="9" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1180,11 +1318,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1195,14 +1333,14 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1">
+    <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -1218,11 +1356,11 @@
       </c>
       <c r="F10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$1</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$2</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1235,14 +1373,14 @@
       </c>
       <c r="L10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$2</f>
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="M10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$1</f>
-        <v>2200</v>
+        <v>2800</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="22.5" customHeight="1">
+    <row r="11" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1260,11 +1398,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1275,14 +1413,14 @@
       </c>
       <c r="L11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$2</f>
-        <v>9100</v>
+        <v>8400</v>
       </c>
       <c r="M11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$1</f>
-        <v>2900</v>
+        <v>3600</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="22.5" customHeight="1">
+    <row r="12" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -1300,11 +1438,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="14">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1315,26 +1453,131 @@
       </c>
       <c r="L12" s="16">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>16800</v>
+        <v>15750</v>
       </c>
       <c r="M12" s="16">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>1200</v>
+        <v>2250</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
+    <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20000</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="H13" s="9">
+        <f>'[7]MD20000.15-DEC'!$K$1</f>
+        <v>17</v>
+      </c>
+      <c r="I13" s="9">
+        <f>'[7]MD20000.15-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="11">
+        <f>'[7]MD20000.15-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <f>'[7]MD20000.15-DEC'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M13" s="8">
+        <f>'[7]MD20000.15-DEC'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16">
+        <f>'[8]MD20000.15-DEc'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <f>'[8]MD20000.15-DEc'!$K$1</f>
+        <v>17</v>
+      </c>
+      <c r="I14" s="14">
+        <f>'[8]MD20000.15-DEc'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="15">
+        <f>'[8]MD20000.15-DEc'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <f>'[8]MD20000.15-DEc'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M14" s="16">
+        <f>'[8]MD20000.15-DEc'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'[9]MD50000.15-DEC'!$C$1</f>
+        <v>50000</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <f>'[9]MD50000.15-DEC'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I15" s="9">
+        <f>'[9]MD50000.15-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="11">
+        <f>'[9]MD50000.15-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f>'[9]MD50000.15-DEC'!$O$2</f>
+        <v>84000</v>
+      </c>
+      <c r="M15" s="8">
+        <f>'[9]MD50000.15-DEC'!$O$1</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -19,8 +19,10 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Code</t>
   </si>
@@ -126,6 +128,15 @@
   </si>
   <si>
     <t>L50000W48P1750-FRI</t>
+  </si>
+  <si>
+    <t>Thongram Rambhabati</t>
+  </si>
+  <si>
+    <t>L20000P120</t>
+  </si>
+  <si>
+    <t>Haobijam Thasana</t>
   </si>
 </sst>
 </file>
@@ -444,24 +455,102 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>32</v>
+            <v>25</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>28</v>
+            <v>35</v>
           </cell>
           <cell r="O2">
-            <v>3200</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>45243</v>
           </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.18-DEC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>116</v>
+          </cell>
+          <cell r="O1">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>4</v>
+          </cell>
+          <cell r="O2">
+            <v>23200</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45279</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.22-DEC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>120</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>24000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -484,18 +573,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>55</v>
+            <v>49</v>
           </cell>
           <cell r="O1">
-            <v>6500</v>
+            <v>7100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>65</v>
+            <v>71</v>
           </cell>
           <cell r="O2">
-            <v>5500</v>
+            <v>4900</v>
           </cell>
         </row>
         <row r="3">
@@ -524,18 +613,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>59</v>
+            <v>55</v>
           </cell>
           <cell r="O1">
-            <v>6100</v>
+            <v>6500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>61</v>
+            <v>65</v>
           </cell>
           <cell r="O2">
-            <v>5900</v>
+            <v>5500</v>
           </cell>
         </row>
         <row r="3">
@@ -564,18 +653,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>5700</v>
+            <v>6400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>6300</v>
+            <v>5600</v>
           </cell>
         </row>
         <row r="3">
@@ -604,18 +693,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>3600</v>
+            <v>4300</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>8400</v>
+            <v>7700</v>
           </cell>
         </row>
         <row r="3">
@@ -634,7 +723,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD10000.20-OCT"/>
+      <sheetName val="MD15000.27-NOV"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -644,18 +734,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>2250</v>
+            <v>3300</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>14700</v>
           </cell>
         </row>
         <row r="3">
@@ -664,6 +754,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -722,22 +813,24 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>24000</v>
+            <v>22400</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>45280</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
@@ -762,22 +855,24 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>48</v>
+            <v>47</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>84000</v>
+            <v>82250</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>45282</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
@@ -1049,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1156,7 @@
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
@@ -1088,7 +1183,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L18)</f>
-        <v>177050</v>
+        <v>216750</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -1236,11 +1331,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1253,11 +1348,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>6500</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1276,11 +1371,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1293,11 +1388,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>6100</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1318,11 +1413,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1333,11 +1428,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>5700</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1356,11 +1451,11 @@
       </c>
       <c r="F10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$1</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$2</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1373,11 +1468,11 @@
       </c>
       <c r="L10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$2</f>
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$1</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,11 +1493,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1413,11 +1508,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$2</f>
-        <v>8400</v>
+        <v>7700</v>
       </c>
       <c r="M11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$1</f>
-        <v>3600</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,33 +1526,33 @@
         <v>25</v>
       </c>
       <c r="E12" s="16">
-        <f>'[6]MD10000.20-OCT'!$C$1</f>
+        <f>'[6]MD15000.27-NOV'!$C$1</f>
         <v>15000</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>15</v>
+        <f>'[6]MD15000.27-NOV'!$K$1</f>
+        <v>14</v>
       </c>
       <c r="I12" s="14">
-        <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>2</v>
+        <f>'[6]MD15000.27-NOV'!$K$2</f>
+        <v>3</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="15">
-        <f>'[6]MD10000.20-OCT'!$B$3</f>
+        <f>'[6]MD15000.27-NOV'!$B$3</f>
         <v>45266</v>
       </c>
       <c r="L12" s="16">
-        <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>15750</v>
+        <f>'[6]MD15000.27-NOV'!$O$2</f>
+        <v>14700</v>
       </c>
       <c r="M12" s="16">
-        <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>2250</v>
+        <f>'[6]MD15000.27-NOV'!$O$1</f>
+        <v>3300</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,26 +1612,26 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="15">
         <f>'[8]MD20000.15-DEc'!$B$3</f>
-        <v>0</v>
+        <v>45280</v>
       </c>
       <c r="L14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$2</f>
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="M14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$1</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1557,25 +1652,105 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="11">
         <f>'[9]MD50000.15-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45282</v>
       </c>
       <c r="L15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$2</f>
-        <v>84000</v>
+        <v>82250</v>
       </c>
       <c r="M15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$1</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="16">
+        <f>'[10]MD20000.18-DEC'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F16" s="14">
+        <f>'[10]MD20000.18-DEC'!$K$1</f>
+        <v>116</v>
+      </c>
+      <c r="G16" s="14">
+        <f>'[10]MD20000.18-DEC'!$K$2</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="15">
+        <f>'[10]MD20000.18-DEC'!$B$3</f>
+        <v>45279</v>
+      </c>
+      <c r="L16" s="16">
+        <f>'[10]MD20000.18-DEC'!$O$2</f>
+        <v>23200</v>
+      </c>
+      <c r="M16" s="16">
+        <f>'[10]MD20000.18-DEC'!$O$1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'[11]MD20000.22-DEC'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F17" s="9">
+        <f>'[11]MD20000.22-DEC'!$K$1</f>
+        <v>120</v>
+      </c>
+      <c r="G17" s="9">
+        <f>'[11]MD20000.22-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="11">
+        <f>'[11]MD20000.22-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f>'[11]MD20000.22-DEC'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M17" s="8">
+        <f>'[11]MD20000.22-DEC'!$O$1</f>
         <v>0</v>
       </c>
     </row>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,13 +142,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +279,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -293,22 +293,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,31 +326,31 @@
     <xf numFmtId="15" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -455,18 +455,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="O1">
-            <v>3500</v>
+            <v>3700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="O2">
-            <v>2500</v>
+            <v>2300</v>
           </cell>
         </row>
         <row r="3">
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -495,18 +495,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>116</v>
+            <v>109</v>
           </cell>
           <cell r="O1">
-            <v>800</v>
+            <v>2200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>23200</v>
+            <v>21800</v>
           </cell>
         </row>
         <row r="3">
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -535,22 +535,24 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>120</v>
+            <v>113</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>24000</v>
+            <v>22600</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>45283</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -559,7 +561,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -573,18 +575,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>49</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>7100</v>
+            <v>7900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>71</v>
+            <v>79</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>4100</v>
           </cell>
         </row>
         <row r="3">
@@ -599,7 +601,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -639,7 +641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -653,18 +655,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>6400</v>
+            <v>7100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>5600</v>
+            <v>4900</v>
           </cell>
         </row>
         <row r="3">
@@ -679,7 +681,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -693,18 +695,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="O1">
-            <v>4300</v>
+            <v>5000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>7700</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="3">
@@ -719,7 +721,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -734,18 +736,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>3300</v>
+            <v>4350</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>14700</v>
+            <v>13650</v>
           </cell>
         </row>
         <row r="3">
@@ -761,7 +763,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -773,22 +775,24 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="K1">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>24000</v>
+            <v>22400</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>45283</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
@@ -798,7 +802,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -813,18 +817,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>1600</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>22400</v>
+            <v>21000</v>
           </cell>
         </row>
         <row r="3">
@@ -840,7 +844,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -855,18 +859,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>47</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>82250</v>
+            <v>80500</v>
           </cell>
         </row>
         <row r="3">
@@ -1136,21 +1140,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -1171,7 +1175,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="22.5" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
@@ -1183,11 +1187,11 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L18)</f>
-        <v>216750</v>
+        <v>205750</v>
       </c>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1197,7 +1201,7 @@
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="40.5" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="22.5" customHeight="1">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="22.5" customHeight="1">
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="22.5" customHeight="1">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1331,11 +1335,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1348,14 +1352,14 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>7100</v>
+        <v>7900</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="22.5" customHeight="1">
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="22.5" customHeight="1">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1413,11 +1417,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1428,14 +1432,14 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>6400</v>
+        <v>7100</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="22.5" customHeight="1">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -1451,11 +1455,11 @@
       </c>
       <c r="F10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1468,14 +1472,14 @@
       </c>
       <c r="L10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$2</f>
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$1</f>
-        <v>3500</v>
+        <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="22.5" customHeight="1">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1493,11 +1497,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1508,14 +1512,14 @@
       </c>
       <c r="L11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$2</f>
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="M11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$1</f>
-        <v>4300</v>
+        <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="22.5" customHeight="1">
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -1533,11 +1537,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[6]MD15000.27-NOV'!$K$1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="14">
         <f>'[6]MD15000.27-NOV'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1548,14 +1552,14 @@
       </c>
       <c r="L12" s="16">
         <f>'[6]MD15000.27-NOV'!$O$2</f>
-        <v>14700</v>
+        <v>13650</v>
       </c>
       <c r="M12" s="16">
         <f>'[6]MD15000.27-NOV'!$O$1</f>
-        <v>3300</v>
+        <v>4350</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="22.5" customHeight="1">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -1572,29 +1576,29 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[7]MD20000.15-DEC'!$K$1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9">
         <f>'[7]MD20000.15-DEC'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="11">
         <f>'[7]MD20000.15-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45283</v>
       </c>
       <c r="L13" s="8">
         <f>'[7]MD20000.15-DEC'!$O$2</f>
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="M13" s="8">
         <f>'[7]MD20000.15-DEC'!$O$1</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="22.5" customHeight="1">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -1612,11 +1616,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -1627,14 +1631,14 @@
       </c>
       <c r="L14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$2</f>
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="M14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$1</f>
-        <v>1600</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="22.5" customHeight="1">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -1652,11 +1656,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -1667,14 +1671,14 @@
       </c>
       <c r="L15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$2</f>
-        <v>82250</v>
+        <v>80500</v>
       </c>
       <c r="M15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$1</f>
-        <v>1750</v>
+        <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="22.5" customHeight="1">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -1690,11 +1694,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[10]MD20000.18-DEC'!$K$1</f>
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G16" s="14">
         <f>'[10]MD20000.18-DEC'!$K$2</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1707,14 +1711,14 @@
       </c>
       <c r="L16" s="16">
         <f>'[10]MD20000.18-DEC'!$O$2</f>
-        <v>23200</v>
+        <v>21800</v>
       </c>
       <c r="M16" s="16">
         <f>'[10]MD20000.18-DEC'!$O$1</f>
-        <v>800</v>
+        <v>2200</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" ht="22.5" customHeight="1">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -1730,11 +1734,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[11]MD20000.22-DEC'!$K$1</f>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G17" s="9">
         <f>'[11]MD20000.22-DEC'!$K$2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1743,15 +1747,15 @@
       </c>
       <c r="K17" s="11">
         <f>'[11]MD20000.22-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45283</v>
       </c>
       <c r="L17" s="8">
         <f>'[11]MD20000.22-DEC'!$O$2</f>
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="M17" s="8">
         <f>'[11]MD20000.22-DEC'!$O$1</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -21,6 +21,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Code</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>Haobijam Thasana</t>
+  </si>
+  <si>
+    <t>Hidangmayum Debjani</t>
+  </si>
+  <si>
+    <t>L10000P350-FRI</t>
   </si>
 </sst>
 </file>
@@ -395,8 +402,8 @@
       <sheetName val="SM5000.1-SEPT (2)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
@@ -455,18 +462,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>23</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>3700</v>
+            <v>6000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>37</v>
+            <v>60</v>
           </cell>
           <cell r="O2">
-            <v>2300</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -488,25 +495,25 @@
       <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>109</v>
+            <v>103</v>
           </cell>
           <cell r="O1">
-            <v>2200</v>
+            <v>3400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>17</v>
           </cell>
           <cell r="O2">
-            <v>21800</v>
+            <v>20600</v>
           </cell>
         </row>
         <row r="3">
@@ -528,33 +535,70 @@
       <sheetName val="MD20000.22-DEC"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>108</v>
+          </cell>
+          <cell r="O1">
+            <v>2400</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>12</v>
+          </cell>
+          <cell r="O2">
+            <v>21600</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45283</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD50000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
-            <v>20000</v>
+            <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>113</v>
+            <v>48</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O2">
-            <v>22600</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>45283</v>
+            <v>16800</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -568,25 +612,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>35</v>
           </cell>
           <cell r="O1">
-            <v>7900</v>
+            <v>8500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>79</v>
+            <v>85</v>
           </cell>
           <cell r="O2">
-            <v>4100</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="3">
@@ -608,25 +652,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>55</v>
+            <v>50</v>
           </cell>
           <cell r="O1">
-            <v>6500</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>65</v>
+            <v>70</v>
           </cell>
           <cell r="O2">
-            <v>5500</v>
+            <v>5000</v>
           </cell>
         </row>
         <row r="3">
@@ -648,25 +692,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O1">
-            <v>7100</v>
+            <v>7800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="3">
@@ -688,25 +732,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="O1">
-            <v>5000</v>
+            <v>5700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>7000</v>
+            <v>6300</v>
           </cell>
         </row>
         <row r="3">
@@ -729,25 +773,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="O1">
-            <v>4350</v>
+            <v>5400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>13650</v>
+            <v>12600</v>
           </cell>
         </row>
         <row r="3">
@@ -756,7 +800,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -771,11 +815,11 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
             <v>1600</v>
@@ -783,7 +827,7 @@
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
             <v>22400</v>
@@ -795,7 +839,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -810,25 +854,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>3000</v>
+            <v>4400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>21000</v>
+            <v>19600</v>
           </cell>
         </row>
         <row r="3">
@@ -837,7 +881,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -852,25 +896,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>3500</v>
+            <v>5250</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>80500</v>
+            <v>78750</v>
           </cell>
         </row>
         <row r="3">
@@ -879,7 +923,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1140,7 +1184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,7 +1231,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L18)</f>
-        <v>205750</v>
+        <v>211350</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -1335,11 +1379,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1352,11 +1396,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>7900</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1375,11 +1419,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1392,11 +1436,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>6500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1417,11 +1461,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1432,11 +1476,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>7100</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1455,16 +1499,16 @@
       </c>
       <c r="F10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$1</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
         <f>'[1]SM5000.1-SEPT (2)'!$K$2</f>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K10" s="15">
         <f>'[1]SM5000.1-SEPT (2)'!$B$3</f>
@@ -1472,11 +1516,11 @@
       </c>
       <c r="L10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$2</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
         <f>'[1]SM5000.1-SEPT (2)'!$O$1</f>
-        <v>3700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="22.5" customHeight="1">
@@ -1497,11 +1541,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="9">
         <f>'[5]MD10000.20-OCT'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1512,11 +1556,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$2</f>
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M11" s="8">
         <f>'[5]MD10000.20-OCT'!$O$1</f>
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1537,11 +1581,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[6]MD15000.27-NOV'!$K$1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="14">
         <f>'[6]MD15000.27-NOV'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1552,11 +1596,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[6]MD15000.27-NOV'!$O$2</f>
-        <v>13650</v>
+        <v>12600</v>
       </c>
       <c r="M12" s="16">
         <f>'[6]MD15000.27-NOV'!$O$1</f>
-        <v>4350</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1">
@@ -1576,11 +1620,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[7]MD20000.15-DEC'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="9">
         <f>'[7]MD20000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -1616,11 +1660,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="14">
         <f>'[8]MD20000.15-DEc'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -1631,11 +1675,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$2</f>
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="M14" s="16">
         <f>'[8]MD20000.15-DEc'!$O$1</f>
-        <v>3000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1">
@@ -1656,11 +1700,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9">
         <f>'[9]MD50000.15-DEC'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -1671,11 +1715,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$2</f>
-        <v>80500</v>
+        <v>78750</v>
       </c>
       <c r="M15" s="8">
         <f>'[9]MD50000.15-DEC'!$O$1</f>
-        <v>3500</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -1694,11 +1738,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[10]MD20000.18-DEC'!$K$1</f>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G16" s="14">
         <f>'[10]MD20000.18-DEC'!$K$2</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1711,11 +1755,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[10]MD20000.18-DEC'!$O$2</f>
-        <v>21800</v>
+        <v>20600</v>
       </c>
       <c r="M16" s="16">
         <f>'[10]MD20000.18-DEC'!$O$1</f>
-        <v>2200</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -1734,11 +1778,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[11]MD20000.22-DEC'!$K$1</f>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G17" s="9">
         <f>'[11]MD20000.22-DEC'!$K$2</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1751,11 +1795,51 @@
       </c>
       <c r="L17" s="8">
         <f>'[11]MD20000.22-DEC'!$O$2</f>
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="M17" s="8">
         <f>'[11]MD20000.22-DEC'!$O$1</f>
-        <v>1400</v>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="16">
+        <f>'[12]MD50000.15-DEC'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <f>'[12]MD50000.15-DEC'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I18" s="14">
+        <f>'[12]MD50000.15-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="15">
+        <f>'[12]MD50000.15-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f>'[12]MD50000.15-DEC'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M18" s="16">
+        <f>'[12]MD50000.15-DEC'!$O$1</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -21,6 +21,11 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Code</t>
   </si>
@@ -137,6 +142,27 @@
   </si>
   <si>
     <t>Haobijam Thasana</t>
+  </si>
+  <si>
+    <t>Hidangmayum Debjani</t>
+  </si>
+  <si>
+    <t>L10000P350-FRI</t>
+  </si>
+  <si>
+    <t>Pangambam Baruni</t>
+  </si>
+  <si>
+    <t>Maibam Chandrika</t>
+  </si>
+  <si>
+    <t>L10000P350-WED</t>
+  </si>
+  <si>
+    <t>Yaithewngbam Bidyabati</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -395,8 +421,8 @@
       <sheetName val="SM5000.1-SEPT (2)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
@@ -453,25 +479,6 @@
         <row r="1">
           <cell r="C1">
             <v>5000</v>
-          </cell>
-          <cell r="K1">
-            <v>23</v>
-          </cell>
-          <cell r="O1">
-            <v>3700</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="K2">
-            <v>37</v>
-          </cell>
-          <cell r="O2">
-            <v>2300</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>45243</v>
           </cell>
         </row>
       </sheetData>
@@ -485,36 +492,38 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD20000.18-DEC"/>
+      <sheetName val="MD50000.15-DEC"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
-            <v>20000</v>
+            <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>109</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>2200</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>21800</v>
+            <v>77000</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45279</v>
+            <v>45648</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -525,28 +534,68 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD20000.22-DEC"/>
+      <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>113</v>
+            <v>96</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>4800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>24</v>
           </cell>
           <cell r="O2">
-            <v>22600</v>
+            <v>19200</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45279</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.22-DEC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>101</v>
+          </cell>
+          <cell r="O1">
+            <v>3800</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>19</v>
+          </cell>
+          <cell r="O2">
+            <v>20200</v>
           </cell>
         </row>
         <row r="3">
@@ -555,6 +604,162 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD50000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>47</v>
+          </cell>
+          <cell r="O1">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="O2">
+            <v>16450</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45303</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD5000-Jan24"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>5000</v>
+          </cell>
+          <cell r="K1">
+            <v>58</v>
+          </cell>
+          <cell r="O1">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>2</v>
+          </cell>
+          <cell r="O2">
+            <v>5800</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45302</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.10-JAN"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>48</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>16800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.10-JAN"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>48</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>16800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -568,25 +773,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>28</v>
           </cell>
           <cell r="O1">
-            <v>7900</v>
+            <v>9200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>79</v>
+            <v>92</v>
           </cell>
           <cell r="O2">
-            <v>4100</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="3">
@@ -608,25 +813,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>55</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>6500</v>
+            <v>8000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>65</v>
+            <v>80</v>
           </cell>
           <cell r="O2">
-            <v>5500</v>
+            <v>4000</v>
           </cell>
         </row>
         <row r="3">
@@ -648,25 +853,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="O1">
-            <v>7100</v>
+            <v>8500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>12</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="3">
@@ -684,34 +889,36 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="loanForm"/>
-      <sheetName val="MD10000.20-OCT"/>
+      <sheetName val="loanform1"/>
+      <sheetName val="loanform2"/>
+      <sheetName val="SM5000.1-SEPT (2)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
-            <v>10000</v>
+            <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>5000</v>
+            <v>6000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>60</v>
           </cell>
           <cell r="O2">
-            <v>7000</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45245</v>
+            <v>45243</v>
           </cell>
         </row>
       </sheetData>
@@ -725,38 +932,36 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD15000.27-NOV"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
-            <v>15000</v>
+            <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>4350</v>
+            <v>6400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>13650</v>
+            <v>5600</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45266</v>
+            <v>45245</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -767,35 +972,38 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD20000.15-DEC"/>
+      <sheetName val="MD15000.27-NOV"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
+          <cell r="C1">
+            <v>15000</v>
+          </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>1600</v>
+            <v>6450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>22400</v>
+            <v>11550</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45283</v>
+            <v>45266</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -806,38 +1014,38 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD20000.15-DEc"/>
+      <sheetName val="MD20000.15-DEC"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>3000</v>
+            <v>5800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>21000</v>
+            <v>18200</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45280</v>
+            <v>45649</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -848,38 +1056,38 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
-      <sheetName val="MD50000.15-DEC"/>
+      <sheetName val="MD20000.15-DEc"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
-            <v>50000</v>
+            <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>3500</v>
+            <v>5800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>80500</v>
+            <v>18200</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45282</v>
+            <v>45646</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1140,7 +1348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1186,8 +1394,8 @@
       <c r="J2" s="21"/>
       <c r="K2" s="22"/>
       <c r="L2" s="18">
-        <f>SUM(L5:L18)</f>
-        <v>205750</v>
+        <f>SUM(L5:L49)</f>
+        <v>236100</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -1335,11 +1543,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1352,11 +1560,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>7900</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1375,11 +1583,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1392,11 +1600,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>6500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1417,11 +1625,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1432,11 +1640,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>7100</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1450,33 +1658,33 @@
         <v>18</v>
       </c>
       <c r="E10" s="16">
-        <f>'[1]SM5000.1-SEPT (2)'!$C$1</f>
+        <f>'[5]SM5000.1-SEPT (2)'!$C$1</f>
         <v>5000</v>
       </c>
       <c r="F10" s="14">
-        <f>'[1]SM5000.1-SEPT (2)'!$K$1</f>
-        <v>23</v>
+        <f>'[5]SM5000.1-SEPT (2)'!$K$1</f>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
-        <f>'[1]SM5000.1-SEPT (2)'!$K$2</f>
-        <v>37</v>
+        <f>'[5]SM5000.1-SEPT (2)'!$K$2</f>
+        <v>60</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="10" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K10" s="15">
-        <f>'[1]SM5000.1-SEPT (2)'!$B$3</f>
+        <f>'[5]SM5000.1-SEPT (2)'!$B$3</f>
         <v>45243</v>
       </c>
       <c r="L10" s="16">
-        <f>'[1]SM5000.1-SEPT (2)'!$O$2</f>
-        <v>2300</v>
+        <f>'[5]SM5000.1-SEPT (2)'!$O$2</f>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
-        <f>'[1]SM5000.1-SEPT (2)'!$O$1</f>
-        <v>3700</v>
+        <f>'[5]SM5000.1-SEPT (2)'!$O$1</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="22.5" customHeight="1">
@@ -1490,33 +1698,33 @@
         <v>20</v>
       </c>
       <c r="E11" s="8">
-        <f>'[5]MD10000.20-OCT'!$C$1</f>
+        <f>'[6]MD10000.20-OCT'!$C$1</f>
         <v>10000</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9">
-        <f>'[5]MD10000.20-OCT'!$K$1</f>
-        <v>10</v>
+        <f>'[6]MD10000.20-OCT'!$K$1</f>
+        <v>8</v>
       </c>
       <c r="I11" s="9">
-        <f>'[5]MD10000.20-OCT'!$K$2</f>
-        <v>7</v>
+        <f>'[6]MD10000.20-OCT'!$K$2</f>
+        <v>9</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="11">
-        <f>'[5]MD10000.20-OCT'!$B$3</f>
+        <f>'[6]MD10000.20-OCT'!$B$3</f>
         <v>45245</v>
       </c>
       <c r="L11" s="8">
-        <f>'[5]MD10000.20-OCT'!$O$2</f>
-        <v>7000</v>
+        <f>'[6]MD10000.20-OCT'!$O$2</f>
+        <v>5600</v>
       </c>
       <c r="M11" s="8">
-        <f>'[5]MD10000.20-OCT'!$O$1</f>
-        <v>5000</v>
+        <f>'[6]MD10000.20-OCT'!$O$1</f>
+        <v>6400</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1530,33 +1738,33 @@
         <v>25</v>
       </c>
       <c r="E12" s="16">
-        <f>'[6]MD15000.27-NOV'!$C$1</f>
+        <f>'[7]MD15000.27-NOV'!$C$1</f>
         <v>15000</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f>'[6]MD15000.27-NOV'!$K$1</f>
-        <v>13</v>
+        <f>'[7]MD15000.27-NOV'!$K$1</f>
+        <v>11</v>
       </c>
       <c r="I12" s="14">
-        <f>'[6]MD15000.27-NOV'!$K$2</f>
-        <v>4</v>
+        <f>'[7]MD15000.27-NOV'!$K$2</f>
+        <v>6</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="15">
-        <f>'[6]MD15000.27-NOV'!$B$3</f>
+        <f>'[7]MD15000.27-NOV'!$B$3</f>
         <v>45266</v>
       </c>
       <c r="L12" s="16">
-        <f>'[6]MD15000.27-NOV'!$O$2</f>
-        <v>13650</v>
+        <f>'[7]MD15000.27-NOV'!$O$2</f>
+        <v>11550</v>
       </c>
       <c r="M12" s="16">
-        <f>'[6]MD15000.27-NOV'!$O$1</f>
-        <v>4350</v>
+        <f>'[7]MD15000.27-NOV'!$O$1</f>
+        <v>6450</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1">
@@ -1570,32 +1778,33 @@
         <v>29</v>
       </c>
       <c r="E13" s="8">
+        <f>'[8]MD20000.15-DEC'!$C$1</f>
         <v>20000</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9">
-        <f>'[7]MD20000.15-DEC'!$K$1</f>
-        <v>16</v>
+        <f>'[8]MD20000.15-DEC'!$K$1</f>
+        <v>13</v>
       </c>
       <c r="I13" s="9">
-        <f>'[7]MD20000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <f>'[8]MD20000.15-DEC'!$K$2</f>
+        <v>4</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="11">
-        <f>'[7]MD20000.15-DEC'!$B$3</f>
-        <v>45283</v>
+        <f>'[8]MD20000.15-DEC'!$B$3</f>
+        <v>45649</v>
       </c>
       <c r="L13" s="8">
-        <f>'[7]MD20000.15-DEC'!$O$2</f>
-        <v>22400</v>
+        <f>'[8]MD20000.15-DEC'!$O$2</f>
+        <v>18200</v>
       </c>
       <c r="M13" s="8">
-        <f>'[7]MD20000.15-DEC'!$O$1</f>
-        <v>1600</v>
+        <f>'[8]MD20000.15-DEC'!$O$1</f>
+        <v>5800</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="22.5" customHeight="1">
@@ -1609,33 +1818,33 @@
         <v>28</v>
       </c>
       <c r="E14" s="16">
-        <f>'[8]MD20000.15-DEc'!$C$1</f>
+        <f>'[9]MD20000.15-DEc'!$C$1</f>
         <v>20000</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
-        <f>'[8]MD20000.15-DEc'!$K$1</f>
-        <v>15</v>
+        <f>'[9]MD20000.15-DEc'!$K$1</f>
+        <v>13</v>
       </c>
       <c r="I14" s="14">
-        <f>'[8]MD20000.15-DEc'!$K$2</f>
-        <v>2</v>
+        <f>'[9]MD20000.15-DEc'!$K$2</f>
+        <v>4</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="15">
-        <f>'[8]MD20000.15-DEc'!$B$3</f>
-        <v>45280</v>
+        <f>'[9]MD20000.15-DEc'!$B$3</f>
+        <v>45646</v>
       </c>
       <c r="L14" s="16">
-        <f>'[8]MD20000.15-DEc'!$O$2</f>
-        <v>21000</v>
+        <f>'[9]MD20000.15-DEc'!$O$2</f>
+        <v>18200</v>
       </c>
       <c r="M14" s="16">
-        <f>'[8]MD20000.15-DEc'!$O$1</f>
-        <v>3000</v>
+        <f>'[9]MD20000.15-DEc'!$O$1</f>
+        <v>5800</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1">
@@ -1649,33 +1858,33 @@
         <v>31</v>
       </c>
       <c r="E15" s="8">
-        <f>'[9]MD50000.15-DEC'!$C$1</f>
+        <f>'[10]MD50000.15-DEC'!$C$1</f>
         <v>50000</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9">
-        <f>'[9]MD50000.15-DEC'!$K$1</f>
-        <v>46</v>
+        <f>'[10]MD50000.15-DEC'!$K$1</f>
+        <v>44</v>
       </c>
       <c r="I15" s="9">
-        <f>'[9]MD50000.15-DEC'!$K$2</f>
-        <v>2</v>
+        <f>'[10]MD50000.15-DEC'!$K$2</f>
+        <v>4</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="11">
-        <f>'[9]MD50000.15-DEC'!$B$3</f>
-        <v>45282</v>
+        <f>'[10]MD50000.15-DEC'!$B$3</f>
+        <v>45648</v>
       </c>
       <c r="L15" s="8">
-        <f>'[9]MD50000.15-DEC'!$O$2</f>
-        <v>80500</v>
+        <f>'[10]MD50000.15-DEC'!$O$2</f>
+        <v>77000</v>
       </c>
       <c r="M15" s="8">
-        <f>'[9]MD50000.15-DEC'!$O$1</f>
-        <v>3500</v>
+        <f>'[10]MD50000.15-DEC'!$O$1</f>
+        <v>7000</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -1689,16 +1898,16 @@
         <v>33</v>
       </c>
       <c r="E16" s="16">
-        <f>'[10]MD20000.18-DEC'!$C$1</f>
+        <f>'[11]MD20000.18-DEC'!$C$1</f>
         <v>20000</v>
       </c>
       <c r="F16" s="14">
-        <f>'[10]MD20000.18-DEC'!$K$1</f>
-        <v>109</v>
+        <f>'[11]MD20000.18-DEC'!$K$1</f>
+        <v>96</v>
       </c>
       <c r="G16" s="14">
-        <f>'[10]MD20000.18-DEC'!$K$2</f>
-        <v>11</v>
+        <f>'[11]MD20000.18-DEC'!$K$2</f>
+        <v>24</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1706,16 +1915,16 @@
         <v>12</v>
       </c>
       <c r="K16" s="15">
-        <f>'[10]MD20000.18-DEC'!$B$3</f>
+        <f>'[11]MD20000.18-DEC'!$B$3</f>
         <v>45279</v>
       </c>
       <c r="L16" s="16">
-        <f>'[10]MD20000.18-DEC'!$O$2</f>
-        <v>21800</v>
+        <f>'[11]MD20000.18-DEC'!$O$2</f>
+        <v>19200</v>
       </c>
       <c r="M16" s="16">
-        <f>'[10]MD20000.18-DEC'!$O$1</f>
-        <v>2200</v>
+        <f>'[11]MD20000.18-DEC'!$O$1</f>
+        <v>4800</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -1729,16 +1938,16 @@
         <v>33</v>
       </c>
       <c r="E17" s="8">
-        <f>'[11]MD20000.22-DEC'!$C$1</f>
+        <f>'[12]MD20000.22-DEC'!$C$1</f>
         <v>20000</v>
       </c>
       <c r="F17" s="9">
-        <f>'[11]MD20000.22-DEC'!$K$1</f>
-        <v>113</v>
+        <f>'[12]MD20000.22-DEC'!$K$1</f>
+        <v>101</v>
       </c>
       <c r="G17" s="9">
-        <f>'[11]MD20000.22-DEC'!$K$2</f>
-        <v>7</v>
+        <f>'[12]MD20000.22-DEC'!$K$2</f>
+        <v>19</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1746,16 +1955,176 @@
         <v>12</v>
       </c>
       <c r="K17" s="11">
-        <f>'[11]MD20000.22-DEC'!$B$3</f>
+        <f>'[12]MD20000.22-DEC'!$B$3</f>
         <v>45283</v>
       </c>
       <c r="L17" s="8">
-        <f>'[11]MD20000.22-DEC'!$O$2</f>
-        <v>22600</v>
+        <f>'[12]MD20000.22-DEC'!$O$2</f>
+        <v>20200</v>
       </c>
       <c r="M17" s="8">
-        <f>'[11]MD20000.22-DEC'!$O$1</f>
-        <v>1400</v>
+        <f>'[12]MD20000.22-DEC'!$O$1</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="16">
+        <f>'[13]MD50000.15-DEC'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <f>'[13]MD50000.15-DEC'!$K$1</f>
+        <v>47</v>
+      </c>
+      <c r="I18" s="14">
+        <f>'[13]MD50000.15-DEC'!$K$2</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="15">
+        <f>'[13]MD50000.15-DEC'!$B$3</f>
+        <v>45303</v>
+      </c>
+      <c r="L18" s="16">
+        <f>'[13]MD50000.15-DEC'!$O$2</f>
+        <v>16450</v>
+      </c>
+      <c r="M18" s="16">
+        <f>'[13]MD50000.15-DEC'!$O$1</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B19" s="6">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8">
+        <f>'[14]MD5000-Jan24'!$C$1</f>
+        <v>5000</v>
+      </c>
+      <c r="F19" s="9">
+        <f>'[14]MD5000-Jan24'!$K$1</f>
+        <v>58</v>
+      </c>
+      <c r="G19" s="9">
+        <f>'[14]MD5000-Jan24'!$K$2</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="11">
+        <f>'[14]MD5000-Jan24'!$B$3</f>
+        <v>45302</v>
+      </c>
+      <c r="L19" s="8">
+        <f>'[14]MD5000-Jan24'!$O$2</f>
+        <v>5800</v>
+      </c>
+      <c r="M19" s="8">
+        <f>'[14]MD5000-Jan24'!$O$1</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B20" s="13">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="16">
+        <f>'[15]MD10000.10-JAN'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
+        <f>'[15]MD10000.10-JAN'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I20" s="14">
+        <f>'[15]MD10000.10-JAN'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="15">
+        <f>'[15]MD10000.10-JAN'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <f>'[15]MD10000.10-JAN'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M20" s="16">
+        <f>'[15]MD10000.10-JAN'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B21" s="6">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8">
+        <f>'[16]MD10000.10-JAN'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>'[16]MD10000.10-JAN'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I21" s="9">
+        <f>'[16]MD10000.10-JAN'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="11">
+        <f>'[16]MD10000.10-JAN'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <f>'[16]MD10000.10-JAN'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M21" s="8">
+        <f>'[16]MD10000.10-JAN'!$O$1</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -26,6 +26,8 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Code</t>
   </si>
@@ -163,6 +165,15 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rambhabati (pishak)</t>
+  </si>
+  <si>
+    <t>L50000W17P350-WED</t>
+  </si>
+  <si>
+    <t>Moirangthem Narmada</t>
   </si>
 </sst>
 </file>
@@ -496,25 +507,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>7000</v>
+            <v>8750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>77000</v>
+            <v>75250</v>
           </cell>
         </row>
         <row r="3">
@@ -523,7 +534,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -537,25 +548,25 @@
       <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>96</v>
+            <v>89</v>
           </cell>
           <cell r="O1">
-            <v>4800</v>
+            <v>6200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>24</v>
+            <v>31</v>
           </cell>
           <cell r="O2">
-            <v>19200</v>
+            <v>17800</v>
           </cell>
         </row>
         <row r="3">
@@ -577,25 +588,25 @@
       <sheetName val="MD20000.22-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>101</v>
+            <v>93</v>
           </cell>
           <cell r="O1">
-            <v>3800</v>
+            <v>5400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>19</v>
+            <v>27</v>
           </cell>
           <cell r="O2">
-            <v>20200</v>
+            <v>18600</v>
           </cell>
         </row>
         <row r="3">
@@ -618,34 +629,34 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>47</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>350</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>16450</v>
+            <v>16100</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45303</v>
+            <v>45310</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -659,25 +670,25 @@
       <sheetName val="MD5000-Jan24"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>58</v>
+            <v>53</v>
           </cell>
           <cell r="O1">
-            <v>200</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>5800</v>
+            <v>5300</v>
           </cell>
         </row>
         <row r="3">
@@ -700,29 +711,34 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>48</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>16100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45308</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -737,13 +753,94 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
+            <v>46</v>
+          </cell>
+          <cell r="O1">
+            <v>700</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>2</v>
+          </cell>
+          <cell r="O2">
+            <v>16100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.20-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>5000</v>
+          </cell>
+          <cell r="K1">
+            <v>16</v>
+          </cell>
+          <cell r="O1">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="O2">
+            <v>5600</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45316</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.20-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
             <v>48</v>
           </cell>
           <cell r="O1">
@@ -759,7 +856,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -773,25 +869,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>28</v>
+            <v>16</v>
           </cell>
           <cell r="O1">
-            <v>9200</v>
+            <v>10400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>92</v>
+            <v>104</v>
           </cell>
           <cell r="O2">
-            <v>2800</v>
+            <v>1600</v>
           </cell>
         </row>
         <row r="3">
@@ -813,25 +909,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>31</v>
           </cell>
           <cell r="O1">
-            <v>8000</v>
+            <v>8900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>80</v>
+            <v>89</v>
           </cell>
           <cell r="O2">
-            <v>4000</v>
+            <v>3100</v>
           </cell>
         </row>
         <row r="3">
@@ -853,25 +949,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="O1">
-            <v>8500</v>
+            <v>9200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="O2">
-            <v>3500</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="3">
@@ -894,8 +990,8 @@
       <sheetName val="SM5000.1-SEPT (2)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
@@ -935,25 +1031,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>6400</v>
+            <v>7100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>5600</v>
+            <v>4900</v>
           </cell>
         </row>
         <row r="3">
@@ -976,25 +1072,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>9</v>
           </cell>
           <cell r="O1">
-            <v>6450</v>
+            <v>8550</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>11550</v>
+            <v>9450</v>
           </cell>
         </row>
         <row r="3">
@@ -1003,7 +1099,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1018,25 +1114,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="O1">
-            <v>5800</v>
+            <v>7200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>18200</v>
+            <v>16800</v>
           </cell>
         </row>
         <row r="3">
@@ -1045,7 +1141,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1060,25 +1156,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>5800</v>
+            <v>8600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>18200</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -1087,7 +1183,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1356,17 +1452,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
@@ -1395,7 +1491,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L49)</f>
-        <v>236100</v>
+        <v>241700</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -1543,11 +1639,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1560,11 +1656,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>9200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1583,11 +1679,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1600,11 +1696,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>8000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1625,11 +1721,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1640,11 +1736,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>8500</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1705,11 +1801,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1720,11 +1816,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="M11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>6400</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1745,11 +1841,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1760,11 +1856,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>11550</v>
+        <v>9450</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>6450</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1">
@@ -1785,11 +1881,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -1800,11 +1896,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>18200</v>
+        <v>16800</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>5800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="22.5" customHeight="1">
@@ -1825,11 +1921,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -1840,11 +1936,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>18200</v>
+        <v>15400</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>5800</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1">
@@ -1865,11 +1961,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -1880,11 +1976,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>77000</v>
+        <v>75250</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>7000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -1903,11 +1999,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1920,11 +2016,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>4800</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -1943,11 +2039,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1960,11 +2056,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>20200</v>
+        <v>18600</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>3800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
@@ -1985,26 +2081,26 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="15">
         <f>'[13]MD50000.15-DEC'!$B$3</f>
-        <v>45303</v>
+        <v>45310</v>
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>16450</v>
+        <v>16100</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="22.5" customHeight="1">
@@ -2023,11 +2119,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2040,11 +2136,11 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="22.5" customHeight="1">
@@ -2065,26 +2161,26 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K20" s="15">
         <f>'[15]MD10000.10-JAN'!$B$3</f>
-        <v>0</v>
+        <v>45308</v>
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="22.5" customHeight="1">
@@ -2105,25 +2201,105 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="11">
         <f>'[16]MD10000.10-JAN'!$B$3</f>
-        <v>0</v>
+        <v>45308</v>
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B22" s="6">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="8">
+        <f>'[17]MD10000.20-OCT'!$C$1</f>
+        <v>5000</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <f>'[17]MD10000.20-OCT'!$K$1</f>
+        <v>16</v>
+      </c>
+      <c r="I22" s="9">
+        <f>'[17]MD10000.20-OCT'!$K$2</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="11">
+        <f>'[17]MD10000.20-OCT'!$B$3</f>
+        <v>45316</v>
+      </c>
+      <c r="L22" s="8">
+        <f>'[17]MD10000.20-OCT'!$O$2</f>
+        <v>5600</v>
+      </c>
+      <c r="M22" s="8">
+        <f>'[17]MD10000.20-OCT'!$O$1</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B23" s="6">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
+        <f>'[18]MD10000.20-OCT'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>'[18]MD10000.20-OCT'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I23" s="9">
+        <f>'[18]MD10000.20-OCT'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="11">
+        <f>'[18]MD10000.20-OCT'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <f>'[18]MD10000.20-OCT'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M23" s="8">
+        <f>'[18]MD10000.20-OCT'!$O$1</f>
         <v>0</v>
       </c>
     </row>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -28,6 +28,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Code</t>
   </si>
@@ -174,6 +175,12 @@
   </si>
   <si>
     <t>Moirangthem Narmada</t>
+  </si>
+  <si>
+    <t>Moirangthem Niroda</t>
+  </si>
+  <si>
+    <t>L10000P350-Mon</t>
   </si>
 </sst>
 </file>
@@ -318,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -369,6 +376,7 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,18 +522,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="O1">
-            <v>8750</v>
+            <v>10500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>75250</v>
+            <v>73500</v>
           </cell>
         </row>
         <row r="3">
@@ -555,18 +563,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>89</v>
+            <v>83</v>
           </cell>
           <cell r="O1">
-            <v>6200</v>
+            <v>7400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>31</v>
+            <v>37</v>
           </cell>
           <cell r="O2">
-            <v>17800</v>
+            <v>16600</v>
           </cell>
         </row>
         <row r="3">
@@ -595,18 +603,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>93</v>
+            <v>88</v>
           </cell>
           <cell r="O1">
-            <v>5400</v>
+            <v>6400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>27</v>
+            <v>32</v>
           </cell>
           <cell r="O2">
-            <v>18600</v>
+            <v>17600</v>
           </cell>
         </row>
         <row r="3">
@@ -636,18 +644,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1050</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>16100</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -861,6 +869,43 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.20-OCT"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>48</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>16800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -876,18 +921,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>10400</v>
+            <v>10900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>104</v>
+            <v>109</v>
           </cell>
           <cell r="O2">
-            <v>1600</v>
+            <v>1100</v>
           </cell>
         </row>
         <row r="3">
@@ -916,18 +961,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>31</v>
+            <v>25</v>
           </cell>
           <cell r="O1">
-            <v>8900</v>
+            <v>9500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>89</v>
+            <v>95</v>
           </cell>
           <cell r="O2">
-            <v>3100</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="3">
@@ -956,18 +1001,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="O1">
-            <v>9200</v>
+            <v>9900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>13</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>2800</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="3">
@@ -1038,18 +1083,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O1">
-            <v>7100</v>
+            <v>7800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="3">
@@ -1079,18 +1124,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>8550</v>
+            <v>9600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>9450</v>
+            <v>8400</v>
           </cell>
         </row>
         <row r="3">
@@ -1121,18 +1166,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>7200</v>
+            <v>8600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -1444,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1452,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1480,20 +1525,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="I2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="18">
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="19">
         <f>SUM(L5:L49)</f>
-        <v>241700</v>
-      </c>
-      <c r="M2" s="19"/>
+        <v>249250</v>
+      </c>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:13" ht="18">
       <c r="C3" s="2"/>
@@ -1639,11 +1684,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1656,11 +1701,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>10400</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1679,11 +1724,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1696,11 +1741,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>8900</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1721,11 +1766,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1736,11 +1781,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>9200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1801,11 +1846,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1816,11 +1861,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="M11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>7100</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1841,11 +1886,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1856,11 +1901,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>9450</v>
+        <v>8400</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>8550</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1">
@@ -1881,11 +1926,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -1896,11 +1941,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>16800</v>
+        <v>15400</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>7200</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="22.5" customHeight="1">
@@ -1961,11 +2006,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -1976,11 +2021,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>75250</v>
+        <v>73500</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>8750</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -1999,11 +2044,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2016,11 +2061,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>6200</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -2039,11 +2084,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2056,11 +2101,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>18600</v>
+        <v>17600</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>5400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
@@ -2081,11 +2126,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2096,11 +2141,11 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="22.5" customHeight="1">
@@ -2302,6 +2347,47 @@
         <f>'[18]MD10000.20-OCT'!$O$1</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="8">
+        <f>'[19]MD10000.20-OCT'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <f>'[19]MD10000.20-OCT'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I24" s="9">
+        <f>'[19]MD10000.20-OCT'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="11">
+        <f>'[19]MD10000.20-OCT'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <f>'[19]MD10000.20-OCT'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M24" s="8">
+        <f>'[19]MD10000.20-OCT'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="L27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -29,6 +29,8 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Code</t>
   </si>
@@ -181,6 +183,15 @@
   </si>
   <si>
     <t>L10000P350-Mon</t>
+  </si>
+  <si>
+    <t>Kh Manisana</t>
+  </si>
+  <si>
+    <t>L50000W17P350-SAT</t>
+  </si>
+  <si>
+    <t>Rambhabati Tombi</t>
   </si>
 </sst>
 </file>
@@ -515,25 +526,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>10500</v>
+            <v>12250</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>73500</v>
+            <v>71750</v>
           </cell>
         </row>
         <row r="3">
@@ -542,7 +553,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -556,25 +567,25 @@
       <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>83</v>
+            <v>78</v>
           </cell>
           <cell r="O1">
-            <v>7400</v>
+            <v>8400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>37</v>
+            <v>42</v>
           </cell>
           <cell r="O2">
-            <v>16600</v>
+            <v>15600</v>
           </cell>
         </row>
         <row r="3">
@@ -596,25 +607,25 @@
       <sheetName val="MD20000.22-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>88</v>
+            <v>83</v>
           </cell>
           <cell r="O1">
-            <v>6400</v>
+            <v>7400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>32</v>
+            <v>37</v>
           </cell>
           <cell r="O2">
-            <v>17600</v>
+            <v>16600</v>
           </cell>
         </row>
         <row r="3">
@@ -637,25 +648,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>1050</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -664,7 +675,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -678,7 +689,7 @@
       <sheetName val="MD5000-Jan24"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
@@ -719,25 +730,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1050</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>16100</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -746,7 +757,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -761,25 +772,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1050</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>16100</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -788,7 +799,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -802,25 +813,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>400</v>
+            <v>750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>5600</v>
+            <v>5250</v>
           </cell>
         </row>
         <row r="3">
@@ -842,25 +853,30 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>48</v>
+            <v>47</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>16450</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45324</v>
           </cell>
         </row>
       </sheetData>
@@ -878,7 +894,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
@@ -900,7 +916,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -914,30 +930,107 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>10900</v>
+            <v>11300</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>109</v>
+            <v>113</v>
           </cell>
           <cell r="O2">
-            <v>1100</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>45212</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanform1"/>
+      <sheetName val="loanform2"/>
+      <sheetName val="SM5000.1-oct"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1">
+            <v>5000</v>
+          </cell>
+          <cell r="K1">
+            <v>57</v>
+          </cell>
+          <cell r="O1">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>3</v>
+          </cell>
+          <cell r="O2">
+            <v>5700</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45323</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.20-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>5000</v>
+          </cell>
+          <cell r="K1">
+            <v>17</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>6000</v>
           </cell>
         </row>
       </sheetData>
@@ -954,25 +1047,25 @@
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>25</v>
+            <v>21</v>
           </cell>
           <cell r="O1">
-            <v>9500</v>
+            <v>9900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>95</v>
+            <v>99</v>
           </cell>
           <cell r="O2">
-            <v>2500</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="3">
@@ -994,25 +1087,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="O1">
-            <v>9900</v>
+            <v>10600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>14</v>
+            <v>15</v>
           </cell>
           <cell r="O2">
-            <v>2100</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="3">
@@ -1076,25 +1169,25 @@
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="O1">
-            <v>7800</v>
+            <v>8500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="O2">
-            <v>4200</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="3">
@@ -1117,7 +1210,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
@@ -1144,7 +1237,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1159,7 +1252,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
@@ -1186,7 +1279,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1201,25 +1294,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="O1">
-            <v>8600</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -1228,7 +1321,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1499,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1629,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="19">
         <f>SUM(L5:L49)</f>
-        <v>249250</v>
+        <v>251850</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -1684,11 +1777,11 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1701,11 +1794,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>10900</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1724,11 +1817,11 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1741,11 +1834,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>9500</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1766,11 +1859,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1781,11 +1874,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>9900</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1846,11 +1939,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1861,11 +1954,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>7800</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1966,11 +2059,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -1981,11 +2074,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>8600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1">
@@ -2006,11 +2099,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2021,11 +2114,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>73500</v>
+        <v>71750</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>10500</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -2044,11 +2137,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2061,11 +2154,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>7400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -2084,11 +2177,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2101,11 +2194,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>17600</v>
+        <v>16600</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>6400</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
@@ -2126,11 +2219,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2141,11 +2234,11 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="22.5" customHeight="1">
@@ -2206,11 +2299,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2221,11 +2314,11 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="22.5" customHeight="1">
@@ -2246,11 +2339,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2261,51 +2354,51 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B22" s="6">
+      <c r="B22" s="13">
         <v>18</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="16">
         <f>'[17]MD10000.20-OCT'!$C$1</f>
         <v>5000</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>16</v>
-      </c>
-      <c r="I22" s="9">
+        <v>15</v>
+      </c>
+      <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="15">
         <f>'[17]MD10000.20-OCT'!$B$3</f>
         <v>45316</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>5600</v>
-      </c>
-      <c r="M22" s="8">
+        <v>5250</v>
+      </c>
+      <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>400</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="22.5" customHeight="1">
@@ -2326,30 +2419,32 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="11">
         <f>'[18]MD10000.20-OCT'!$B$3</f>
-        <v>0</v>
+        <v>45324</v>
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>16800</v>
+        <v>16450</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>20</v>
+      </c>
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
@@ -2383,6 +2478,86 @@
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B25" s="6">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8">
+        <f>'[20]SM5000.1-oct'!$C$1</f>
+        <v>5000</v>
+      </c>
+      <c r="F25" s="9">
+        <f>'[20]SM5000.1-oct'!$K$1</f>
+        <v>57</v>
+      </c>
+      <c r="G25" s="9">
+        <f>'[20]SM5000.1-oct'!$K$2</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="11">
+        <f>'[20]SM5000.1-oct'!$B$3</f>
+        <v>45323</v>
+      </c>
+      <c r="L25" s="8">
+        <f>'[20]SM5000.1-oct'!$O$2</f>
+        <v>5700</v>
+      </c>
+      <c r="M25" s="8">
+        <f>'[20]SM5000.1-oct'!$O$1</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B26" s="6">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="8">
+        <f>'[21]MD10000.20-OCT'!$C$1</f>
+        <v>5000</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <f>'[21]MD10000.20-OCT'!$K$1</f>
+        <v>17</v>
+      </c>
+      <c r="I26" s="9">
+        <f>'[21]MD10000.20-OCT'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="11">
+        <f>'[21]MD10000.20-OCT'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <f>'[21]MD10000.20-OCT'!$O$2</f>
+        <v>6000</v>
+      </c>
+      <c r="M26" s="8">
+        <f>'[21]MD10000.20-OCT'!$O$1</f>
         <v>0</v>
       </c>
     </row>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -31,6 +31,8 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Code</t>
   </si>
@@ -336,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -387,7 +389,6 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,18 +534,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>12250</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>71750</v>
+            <v>70000</v>
           </cell>
         </row>
         <row r="3">
@@ -574,18 +575,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>78</v>
+            <v>74</v>
           </cell>
           <cell r="O1">
-            <v>8400</v>
+            <v>9200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>42</v>
+            <v>46</v>
           </cell>
           <cell r="O2">
-            <v>15600</v>
+            <v>14800</v>
           </cell>
         </row>
         <row r="3">
@@ -614,18 +615,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>83</v>
+            <v>79</v>
           </cell>
           <cell r="O1">
-            <v>7400</v>
+            <v>8200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>37</v>
+            <v>41</v>
           </cell>
           <cell r="O2">
-            <v>16600</v>
+            <v>15800</v>
           </cell>
         </row>
         <row r="3">
@@ -655,18 +656,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>15050</v>
           </cell>
         </row>
         <row r="3">
@@ -696,18 +697,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>53</v>
+            <v>51</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>5300</v>
+            <v>5100</v>
           </cell>
         </row>
         <row r="3">
@@ -737,18 +738,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>1050</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -779,18 +780,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>1050</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -820,18 +821,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>750</v>
+            <v>1100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>5250</v>
+            <v>4900</v>
           </cell>
         </row>
         <row r="3">
@@ -860,18 +861,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>47</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>350</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>16450</v>
+            <v>16100</v>
           </cell>
         </row>
         <row r="3">
@@ -901,18 +902,23 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>48</v>
+            <v>47</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>16450</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45327</v>
           </cell>
         </row>
       </sheetData>
@@ -937,18 +943,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>11300</v>
+            <v>12000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>113</v>
+            <v>120</v>
           </cell>
           <cell r="O2">
-            <v>700</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -979,18 +985,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>57</v>
+            <v>52</v>
           </cell>
           <cell r="O1">
-            <v>300</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>5700</v>
+            <v>5200</v>
           </cell>
         </row>
         <row r="3">
@@ -1039,7 +1045,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1054,18 +1060,88 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>21</v>
+            <v>120</v>
           </cell>
           <cell r="O1">
-            <v>9900</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="O2">
-            <v>2100</v>
+            <v>12000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.1-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>120</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>12000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.1-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>0</v>
+          </cell>
+          <cell r="O1">
+            <v>12000</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>120</v>
+          </cell>
+          <cell r="O2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1094,18 +1170,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O1">
-            <v>10600</v>
+            <v>11300</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="O2">
-            <v>1400</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="3">
@@ -1176,18 +1252,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="O1">
-            <v>8500</v>
+            <v>9200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="O2">
-            <v>3500</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="3">
@@ -1217,18 +1293,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>9600</v>
+            <v>10650</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>8400</v>
+            <v>7350</v>
           </cell>
         </row>
         <row r="3">
@@ -1259,18 +1335,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="O1">
-            <v>8600</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -1301,18 +1377,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="O1">
-            <v>10000</v>
+            <v>11400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14000</v>
+            <v>12600</v>
           </cell>
         </row>
         <row r="3">
@@ -1590,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M27"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,20 +1694,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="I2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="19">
-        <f>SUM(L5:L49)</f>
-        <v>251850</v>
-      </c>
-      <c r="M2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="18">
+        <f>SUM(L5:L48)</f>
+        <v>261650</v>
+      </c>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" ht="18">
       <c r="C3" s="2"/>
@@ -1777,16 +1853,16 @@
       </c>
       <c r="F7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$1</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f>'[2]MD10000.1-OCT'!$K$2</f>
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K7" s="11">
         <f>'[2]MD10000.1-OCT'!$B$3</f>
@@ -1794,11 +1870,11 @@
       </c>
       <c r="L7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$2</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8">
         <f>'[2]MD10000.1-OCT'!$O$1</f>
-        <v>11300</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5" customHeight="1">
@@ -1817,16 +1893,16 @@
       </c>
       <c r="F8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$1</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14">
         <f>'[3]MD10000.1-OCT'!$K$2</f>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K8" s="15">
         <f>'[3]MD10000.1-OCT'!$B$3</f>
@@ -1834,11 +1910,11 @@
       </c>
       <c r="L8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$2</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
         <f>'[3]MD10000.1-OCT'!$O$1</f>
-        <v>9900</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5" customHeight="1">
@@ -1859,11 +1935,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -1874,11 +1950,11 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>10600</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1">
@@ -1939,11 +2015,11 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
@@ -1954,11 +2030,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>8500</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -1979,11 +2055,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -1994,11 +2070,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>8400</v>
+        <v>7350</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>9600</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1">
@@ -2019,11 +2095,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2034,11 +2110,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>8600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="22.5" customHeight="1">
@@ -2059,11 +2135,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2074,11 +2150,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>10000</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="22.5" customHeight="1">
@@ -2099,11 +2175,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2114,11 +2190,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>71750</v>
+        <v>70000</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>12250</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1">
@@ -2137,11 +2213,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2154,11 +2230,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>8400</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -2177,11 +2253,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2194,11 +2270,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>7400</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
@@ -2219,11 +2295,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2234,11 +2310,11 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="22.5" customHeight="1">
@@ -2257,11 +2333,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2274,11 +2350,11 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="22.5" customHeight="1">
@@ -2299,11 +2375,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2314,11 +2390,11 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="22.5" customHeight="1">
@@ -2339,11 +2415,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2354,11 +2430,11 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="22.5" customHeight="1">
@@ -2379,11 +2455,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2394,11 +2470,11 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>5250</v>
+        <v>4900</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>750</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="22.5" customHeight="1">
@@ -2419,11 +2495,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2434,11 +2510,11 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>16450</v>
+        <v>16100</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="22.5" customHeight="1">
@@ -2459,26 +2535,26 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="11">
         <f>'[19]MD10000.20-OCT'!$B$3</f>
-        <v>0</v>
+        <v>45327</v>
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>16800</v>
+        <v>16450</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="22.5" customHeight="1">
@@ -2497,11 +2573,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2514,11 +2590,11 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" customHeight="1">
@@ -2562,7 +2638,84 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="L27" s="18"/>
+      <c r="B27" s="13">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16">
+        <f>'[22]MD10000.1-OCT'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F27" s="14">
+        <f>'[22]MD10000.1-OCT'!$K$1</f>
+        <v>120</v>
+      </c>
+      <c r="G27" s="14">
+        <f>'[22]MD10000.1-OCT'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="15">
+        <f>'[22]MD10000.1-OCT'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <f>'[22]MD10000.1-OCT'!$O$2</f>
+        <v>12000</v>
+      </c>
+      <c r="M27" s="16">
+        <f>'[22]MD10000.1-OCT'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B28" s="6">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8">
+        <f>'[23]MD10000.1-OCT'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F28" s="9">
+        <f>'[23]MD10000.1-OCT'!$K$1</f>
+        <v>120</v>
+      </c>
+      <c r="G28" s="9">
+        <f>'[23]MD10000.1-OCT'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="11">
+        <f>'[23]MD10000.1-OCT'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <f>'[23]MD10000.1-OCT'!$O$2</f>
+        <v>12000</v>
+      </c>
+      <c r="M28" s="8">
+        <f>'[23]MD10000.1-OCT'!$O$1</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -33,6 +33,7 @@
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Code</t>
   </si>
@@ -194,6 +195,12 @@
   </si>
   <si>
     <t>Rambhabati Tombi</t>
+  </si>
+  <si>
+    <t>L20000W17P1400-wed</t>
+  </si>
+  <si>
+    <t>inActive</t>
   </si>
 </sst>
 </file>
@@ -575,18 +582,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>74</v>
+            <v>72</v>
           </cell>
           <cell r="O1">
-            <v>9200</v>
+            <v>9600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>46</v>
+            <v>48</v>
           </cell>
           <cell r="O2">
-            <v>14800</v>
+            <v>14400</v>
           </cell>
         </row>
         <row r="3">
@@ -615,18 +622,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>79</v>
+            <v>77</v>
           </cell>
           <cell r="O1">
-            <v>8200</v>
+            <v>8600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>41</v>
+            <v>43</v>
           </cell>
           <cell r="O2">
-            <v>15800</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -985,18 +992,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>52</v>
+            <v>50</v>
           </cell>
           <cell r="O1">
-            <v>800</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>5200</v>
+            <v>5000</v>
           </cell>
         </row>
         <row r="3">
@@ -1025,18 +1032,23 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>6000</v>
+            <v>5600</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45332</v>
           </cell>
         </row>
       </sheetData>
@@ -1110,6 +1122,43 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>17</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>24000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1252,18 +1301,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>9200</v>
+            <v>12000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>13</v>
+            <v>17</v>
           </cell>
           <cell r="O2">
-            <v>2800</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1335,18 +1384,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="O1">
-            <v>10000</v>
+            <v>11400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14000</v>
+            <v>12600</v>
           </cell>
         </row>
         <row r="3">
@@ -1658,7 +1707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1666,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1705,7 +1754,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L48)</f>
-        <v>261650</v>
+        <v>280050</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -2015,14 +2064,14 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="9">
         <f>'[6]MD10000.20-OCT'!$K$2</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K11" s="11">
         <f>'[6]MD10000.20-OCT'!$B$3</f>
@@ -2030,11 +2079,11 @@
       </c>
       <c r="L11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$2</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
         <f>'[6]MD10000.20-OCT'!$O$1</f>
-        <v>9200</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1">
@@ -2095,11 +2144,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2110,11 +2159,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>10000</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="22.5" customHeight="1">
@@ -2213,11 +2262,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2230,11 +2279,11 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>9200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1">
@@ -2253,11 +2302,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2270,11 +2319,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>8200</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
@@ -2573,11 +2622,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2590,11 +2639,11 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" customHeight="1">
@@ -2615,26 +2664,26 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K26" s="11">
         <f>'[21]MD10000.20-OCT'!$B$3</f>
-        <v>0</v>
+        <v>45332</v>
       </c>
       <c r="L26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$2</f>
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="M26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$1</f>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -2714,6 +2763,46 @@
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B29" s="6">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="8">
+        <f>'[24]MD20000.15-DEC'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <f>'[24]MD20000.15-DEC'!$K$1</f>
+        <v>17</v>
+      </c>
+      <c r="I29" s="9">
+        <f>'[24]MD20000.15-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="11">
+        <f>'[24]MD20000.15-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <f>'[24]MD20000.15-DEC'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M29" s="8">
+        <f>'[24]MD20000.15-DEC'!$O$1</f>
         <v>0</v>
       </c>
     </row>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="6" r:id="rId1"/>
@@ -34,8 +34,9 @@
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Code</t>
   </si>
@@ -201,18 +202,21 @@
   </si>
   <si>
     <t>inActive</t>
+  </si>
+  <si>
+    <t>L20000W17P1400-fri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +347,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -357,22 +361,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,31 +394,31 @@
     <xf numFmtId="15" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +453,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -526,7 +530,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -534,25 +538,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="O1">
-            <v>14000</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>70000</v>
+            <v>68250</v>
           </cell>
         </row>
         <row r="3">
@@ -561,39 +565,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>72</v>
+            <v>67</v>
           </cell>
           <cell r="O1">
-            <v>9600</v>
+            <v>10600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>48</v>
+            <v>53</v>
           </cell>
           <cell r="O2">
-            <v>14400</v>
+            <v>13400</v>
           </cell>
         </row>
         <row r="3">
@@ -608,32 +612,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD20000.22-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>77</v>
+            <v>72</v>
           </cell>
           <cell r="O1">
-            <v>8600</v>
+            <v>9600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>43</v>
+            <v>48</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>14400</v>
           </cell>
         </row>
         <row r="3">
@@ -648,7 +652,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -656,25 +660,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>15050</v>
+            <v>14700</v>
           </cell>
         </row>
         <row r="3">
@@ -683,39 +687,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD5000-Jan24"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>51</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>900</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>5100</v>
+            <v>4600</v>
           </cell>
         </row>
         <row r="3">
@@ -730,7 +734,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -738,25 +742,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>15050</v>
           </cell>
         </row>
         <row r="3">
@@ -765,14 +769,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -780,25 +784,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>15050</v>
           </cell>
         </row>
         <row r="3">
@@ -807,39 +811,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>1100</v>
+            <v>1450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>4550</v>
           </cell>
         </row>
         <row r="3">
@@ -854,32 +858,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1050</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>16100</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -894,7 +898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -902,25 +906,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>47</v>
+            <v>46</v>
           </cell>
           <cell r="O1">
-            <v>350</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>16450</v>
+            <v>16100</v>
           </cell>
         </row>
         <row r="3">
@@ -929,14 +933,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -976,7 +980,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -984,26 +988,26 @@
       <sheetName val="SM5000.1-oct"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>50</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>1000</v>
+            <v>1500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>15</v>
           </cell>
           <cell r="O2">
-            <v>5000</v>
+            <v>4500</v>
           </cell>
         </row>
         <row r="3">
@@ -1018,32 +1022,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>400</v>
+            <v>750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>5600</v>
+            <v>5250</v>
           </cell>
         </row>
         <row r="3">
@@ -1058,42 +1062,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="loanForm"/>
-      <sheetName val="MD10000.1-OCT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1">
-            <v>10000</v>
-          </cell>
-          <cell r="K1">
-            <v>120</v>
-          </cell>
-          <cell r="O1">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="O2">
-            <v>12000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1107,18 +1076,63 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>120</v>
+            <v>113</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>12000</v>
+            <v>11300</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45339</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.1-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>113</v>
+          </cell>
+          <cell r="O1">
+            <v>700</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>7</v>
+          </cell>
+          <cell r="O2">
+            <v>11300</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45334</v>
           </cell>
         </row>
       </sheetData>
@@ -1128,7 +1142,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1143,18 +1157,23 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O2">
-            <v>24000</v>
+            <v>22400</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45337</v>
           </cell>
         </row>
       </sheetData>
@@ -1164,8 +1183,45 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.15-DEC"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>16</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="O2">
+            <v>24000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1205,7 +1261,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1219,18 +1275,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>11300</v>
+            <v>12000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="O2">
-            <v>700</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1245,7 +1301,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -1287,7 +1343,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1327,7 +1383,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1335,25 +1391,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O1">
-            <v>10650</v>
+            <v>11700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>7350</v>
+            <v>6300</v>
           </cell>
         </row>
         <row r="3">
@@ -1362,14 +1418,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1377,25 +1433,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>11400</v>
+            <v>12800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>12600</v>
+            <v>11200</v>
           </cell>
         </row>
         <row r="3">
@@ -1404,14 +1460,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1419,25 +1475,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>11400</v>
+            <v>12800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>12600</v>
+            <v>11200</v>
           </cell>
         </row>
         <row r="3">
@@ -1446,7 +1502,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1495,7 +1551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1530,7 +1586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1707,21 +1763,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -1742,7 +1798,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="22.5" customHeight="1">
+    <row r="2" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
@@ -1754,11 +1810,15 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L48)</f>
-        <v>280050</v>
+        <v>289300</v>
       </c>
       <c r="M2" s="19"/>
+      <c r="N2" s="1">
+        <f>SUM(N9:N36)</f>
+        <v>17150</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1768,7 +1828,7 @@
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="40.5" customHeight="1">
+    <row r="4" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="22.5" customHeight="1">
+    <row r="5" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1846,7 +1906,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22.5" customHeight="1">
+    <row r="6" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -1886,7 +1946,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="22.5" customHeight="1">
+    <row r="7" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1926,7 +1986,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="22.5" customHeight="1">
+    <row r="8" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -1966,7 +2026,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="22.5" customHeight="1">
+    <row r="9" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1984,14 +2044,14 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
         <f>'[4]MD10000.20-OCT'!$K$2</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K9" s="11">
         <f>'[4]MD10000.20-OCT'!$B$3</f>
@@ -1999,14 +2059,17 @@
       </c>
       <c r="L9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$2</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M9" s="8">
         <f>'[4]MD10000.20-OCT'!$O$1</f>
-        <v>11300</v>
+        <v>12000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>700</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1">
+    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -2046,7 +2109,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="22.5" customHeight="1">
+    <row r="11" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -2086,7 +2149,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="22.5" customHeight="1">
+    <row r="12" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -2104,11 +2167,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -2119,14 +2182,17 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>7350</v>
+        <v>6300</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>10650</v>
+        <v>11700</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="22.5" customHeight="1">
+    <row r="13" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -2144,11 +2210,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2159,14 +2225,17 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>11400</v>
+        <v>12800</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="22.5" customHeight="1">
+    <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -2184,11 +2253,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2199,14 +2268,17 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>11400</v>
+        <v>12800</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="22.5" customHeight="1">
+    <row r="15" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -2224,11 +2296,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2239,14 +2311,17 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>70000</v>
+        <v>68250</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>14000</v>
+        <v>15750</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1750</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1">
+    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -2262,11 +2337,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2279,14 +2354,17 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>9600</v>
+        <v>10600</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="22.5" customHeight="1">
+    <row r="17" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -2302,11 +2380,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2319,14 +2397,17 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>8600</v>
+        <v>9600</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="22.5" customHeight="1">
+    <row r="18" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <v>14</v>
       </c>
@@ -2344,11 +2425,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2359,14 +2440,17 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>15050</v>
+        <v>14700</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>1750</v>
+        <v>2100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="22.5" customHeight="1">
+    <row r="19" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>15</v>
       </c>
@@ -2382,11 +2466,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2399,14 +2483,17 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>900</v>
+        <v>1400</v>
+      </c>
+      <c r="N19" s="1">
+        <v>700</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="22.5" customHeight="1">
+    <row r="20" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <v>16</v>
       </c>
@@ -2424,11 +2511,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2439,14 +2526,17 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>1400</v>
+        <v>1750</v>
+      </c>
+      <c r="N20" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="22.5" customHeight="1">
+    <row r="21" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>17</v>
       </c>
@@ -2464,11 +2554,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2479,14 +2569,17 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>1400</v>
+        <v>1750</v>
+      </c>
+      <c r="N21" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="22.5" customHeight="1">
+    <row r="22" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13">
         <v>18</v>
       </c>
@@ -2504,11 +2597,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2519,14 +2612,17 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>4550</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>1100</v>
+        <v>1450</v>
+      </c>
+      <c r="N22" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="22.5" customHeight="1">
+    <row r="23" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>19</v>
       </c>
@@ -2544,11 +2640,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2559,14 +2655,17 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>700</v>
+        <v>1050</v>
+      </c>
+      <c r="N23" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="22.5" customHeight="1">
+    <row r="24" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>20</v>
       </c>
@@ -2584,11 +2683,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
@@ -2599,14 +2698,17 @@
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>16450</v>
+        <v>16100</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
+        <v>700</v>
+      </c>
+      <c r="N24" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="22.5" customHeight="1">
+    <row r="25" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>21</v>
       </c>
@@ -2622,11 +2724,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2639,14 +2741,17 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>1000</v>
+        <v>1500</v>
+      </c>
+      <c r="N25" s="1">
+        <v>700</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.5" customHeight="1">
+    <row r="26" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>22</v>
       </c>
@@ -2664,11 +2769,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>12</v>
@@ -2679,14 +2784,17 @@
       </c>
       <c r="L26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$2</f>
-        <v>5600</v>
+        <v>5250</v>
       </c>
       <c r="M26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$1</f>
-        <v>400</v>
+        <v>750</v>
+      </c>
+      <c r="N26" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>23</v>
       </c>
@@ -2702,11 +2810,11 @@
       </c>
       <c r="F27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$1</f>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -2715,18 +2823,21 @@
       </c>
       <c r="K27" s="15">
         <f>'[22]MD10000.1-OCT'!$B$3</f>
-        <v>0</v>
+        <v>45339</v>
       </c>
       <c r="L27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$2</f>
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="M27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$1</f>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="N27" s="1">
+        <v>700</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="22.5" customHeight="1">
+    <row r="28" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>24</v>
       </c>
@@ -2742,11 +2853,11 @@
       </c>
       <c r="F28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$1</f>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2755,18 +2866,21 @@
       </c>
       <c r="K28" s="11">
         <f>'[23]MD10000.1-OCT'!$B$3</f>
-        <v>0</v>
+        <v>45334</v>
       </c>
       <c r="L28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$2</f>
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="N28" s="1">
+        <v>700</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="22.5" customHeight="1">
+    <row r="29" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>25</v>
       </c>
@@ -2784,26 +2898,78 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="11">
         <f>'[24]MD20000.15-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45337</v>
       </c>
       <c r="L29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$2</f>
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="M29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$1</f>
+        <v>1600</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>26</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="8">
+        <f>'[25]MD20000.15-DEC'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <f>'[25]MD20000.15-DEC'!$K$1</f>
+        <v>16</v>
+      </c>
+      <c r="I30" s="9">
+        <f>'[25]MD20000.15-DEC'!$K$2</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="11">
+        <f>'[25]MD20000.15-DEC'!$B$3</f>
         <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <f>'[25]MD20000.15-DEC'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M30" s="8">
+        <f>'[25]MD20000.15-DEC'!$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <f>17*1400</f>
+        <v>23800</v>
       </c>
     </row>
   </sheetData>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
   </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -398,12 +398,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,18 +539,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>39</v>
+            <v>38</v>
           </cell>
           <cell r="O1">
-            <v>15750</v>
+            <v>17500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>68250</v>
+            <v>66500</v>
           </cell>
         </row>
         <row r="3">
@@ -586,18 +580,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>67</v>
+            <v>63</v>
           </cell>
           <cell r="O1">
-            <v>10600</v>
+            <v>11400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>53</v>
+            <v>57</v>
           </cell>
           <cell r="O2">
-            <v>13400</v>
+            <v>12600</v>
           </cell>
         </row>
         <row r="3">
@@ -626,18 +620,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>72</v>
+            <v>68</v>
           </cell>
           <cell r="O1">
-            <v>9600</v>
+            <v>10400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>48</v>
+            <v>52</v>
           </cell>
           <cell r="O2">
-            <v>14400</v>
+            <v>13600</v>
           </cell>
         </row>
         <row r="3">
@@ -667,18 +661,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>14700</v>
+            <v>14350</v>
           </cell>
         </row>
         <row r="3">
@@ -708,18 +702,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>14</v>
+            <v>17</v>
           </cell>
           <cell r="O2">
-            <v>4600</v>
+            <v>4300</v>
           </cell>
         </row>
         <row r="3">
@@ -749,18 +743,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>15050</v>
+            <v>14700</v>
           </cell>
         </row>
         <row r="3">
@@ -791,18 +785,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>15050</v>
+            <v>14700</v>
           </cell>
         </row>
         <row r="3">
@@ -832,18 +826,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="O1">
-            <v>1450</v>
+            <v>1800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>4550</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="3">
@@ -872,18 +866,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>1050</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -913,18 +907,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1050</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>16100</v>
+            <v>15750</v>
           </cell>
         </row>
         <row r="3">
@@ -996,18 +990,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>38</v>
           </cell>
           <cell r="O1">
-            <v>1500</v>
+            <v>2200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>15</v>
+            <v>22</v>
           </cell>
           <cell r="O2">
-            <v>4500</v>
+            <v>3800</v>
           </cell>
         </row>
         <row r="3">
@@ -1036,18 +1030,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>750</v>
+            <v>1100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>5250</v>
+            <v>4900</v>
           </cell>
         </row>
         <row r="3">
@@ -1076,18 +1070,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>113</v>
+            <v>106</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>11300</v>
+            <v>10600</v>
           </cell>
         </row>
         <row r="3">
@@ -1116,18 +1110,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>113</v>
+            <v>106</v>
           </cell>
           <cell r="O1">
-            <v>700</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>11300</v>
+            <v>10600</v>
           </cell>
         </row>
         <row r="3">
@@ -1157,18 +1151,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>1600</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>22400</v>
+            <v>21000</v>
           </cell>
         </row>
         <row r="3">
@@ -1192,7 +1186,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
@@ -1202,7 +1196,7 @@
             <v>16</v>
           </cell>
           <cell r="O1">
-            <v>0</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
@@ -1210,11 +1204,16 @@
             <v>1</v>
           </cell>
           <cell r="O2">
-            <v>24000</v>
+            <v>22600</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45345</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1398,18 +1397,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="O1">
-            <v>11700</v>
+            <v>12750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="O2">
-            <v>6300</v>
+            <v>5250</v>
           </cell>
         </row>
         <row r="3">
@@ -1482,18 +1481,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>12800</v>
+            <v>14200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>11200</v>
+            <v>9800</v>
           </cell>
         </row>
         <row r="3">
@@ -1551,7 +1550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1586,7 +1585,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1771,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N34"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,33 +1791,37 @@
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="22"/>
+      <c r="I2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="18">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="12">
         <f>SUM(L5:L48)</f>
-        <v>289300</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="1">
-        <f>SUM(N9:N36)</f>
-        <v>17150</v>
+        <v>275850</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="O2" s="12">
+        <f>SUM(O9:O29)</f>
+        <v>15050</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>14900+260750</f>
+        <v>275650</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1828,7 +1831,7 @@
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1865,8 +1868,9 @@
       <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1905,8 +1909,9 @@
         <f>'[1]SM5000.1-SEPT'!$O$1</f>
         <v>6000</v>
       </c>
+      <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -1945,8 +1950,9 @@
         <f>'[1]SM5000.1-oct'!$O$1</f>
         <v>6000</v>
       </c>
+      <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1985,8 +1991,9 @@
         <f>'[2]MD10000.1-OCT'!$O$1</f>
         <v>12000</v>
       </c>
+      <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -2025,8 +2032,9 @@
         <f>'[3]MD10000.1-OCT'!$O$1</f>
         <v>12000</v>
       </c>
+      <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -2065,11 +2073,9 @@
         <f>'[4]MD10000.20-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="N9" s="1">
-        <v>700</v>
-      </c>
+      <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -2108,8 +2114,9 @@
         <f>'[5]SM5000.1-SEPT (2)'!$O$1</f>
         <v>6000</v>
       </c>
+      <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -2148,8 +2155,9 @@
         <f>'[6]MD10000.20-OCT'!$O$1</f>
         <v>12000</v>
       </c>
+      <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -2167,11 +2175,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -2182,17 +2190,17 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>6300</v>
+        <v>5250</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>11700</v>
-      </c>
-      <c r="N12" s="1">
+        <v>12750</v>
+      </c>
+      <c r="O12" s="16">
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -2231,11 +2239,11 @@
         <f>'[8]MD20000.15-DEC'!$O$1</f>
         <v>12800</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -2253,11 +2261,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2268,17 +2276,17 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>11200</v>
+        <v>9800</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>12800</v>
-      </c>
-      <c r="N14" s="1">
+        <v>14200</v>
+      </c>
+      <c r="O14" s="16">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -2296,11 +2304,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2311,17 +2319,17 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>68250</v>
+        <v>66500</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>15750</v>
-      </c>
-      <c r="N15" s="1">
+        <v>17500</v>
+      </c>
+      <c r="O15" s="8">
         <v>1750</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -2337,11 +2345,11 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2354,17 +2362,17 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>10600</v>
-      </c>
-      <c r="N16" s="1">
+        <v>11400</v>
+      </c>
+      <c r="O16" s="16">
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -2380,11 +2388,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2397,17 +2405,17 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>9600</v>
-      </c>
-      <c r="N17" s="1">
+        <v>10400</v>
+      </c>
+      <c r="O17" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <v>14</v>
       </c>
@@ -2425,11 +2433,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2440,17 +2448,17 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>14700</v>
+        <v>14350</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>2100</v>
-      </c>
-      <c r="N18" s="1">
+        <v>2450</v>
+      </c>
+      <c r="O18" s="16">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>15</v>
       </c>
@@ -2466,11 +2474,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2483,17 +2491,17 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>1400</v>
-      </c>
-      <c r="N19" s="1">
+        <v>1700</v>
+      </c>
+      <c r="O19" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <v>16</v>
       </c>
@@ -2511,11 +2519,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2526,17 +2534,17 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>15050</v>
+        <v>14700</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>1750</v>
-      </c>
-      <c r="N20" s="1">
+        <v>2100</v>
+      </c>
+      <c r="O20" s="16">
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>17</v>
       </c>
@@ -2554,11 +2562,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2569,17 +2577,17 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>15050</v>
+        <v>14700</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>1750</v>
-      </c>
-      <c r="N21" s="1">
+        <v>2100</v>
+      </c>
+      <c r="O21" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13">
         <v>18</v>
       </c>
@@ -2597,11 +2605,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2612,17 +2620,17 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>4550</v>
+        <v>4200</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>1450</v>
-      </c>
-      <c r="N22" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O22" s="16">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>19</v>
       </c>
@@ -2640,11 +2648,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2655,17 +2663,17 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>1050</v>
-      </c>
-      <c r="N23" s="1">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>20</v>
       </c>
@@ -2683,11 +2691,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
@@ -2698,17 +2706,17 @@
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
-        <v>700</v>
-      </c>
-      <c r="N24" s="1">
+        <v>1050</v>
+      </c>
+      <c r="O24" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>21</v>
       </c>
@@ -2724,11 +2732,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2741,17 +2749,17 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>1500</v>
-      </c>
-      <c r="N25" s="1">
+        <v>2200</v>
+      </c>
+      <c r="O25" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>22</v>
       </c>
@@ -2769,11 +2777,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>12</v>
@@ -2784,17 +2792,17 @@
       </c>
       <c r="L26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$2</f>
-        <v>5250</v>
+        <v>4900</v>
       </c>
       <c r="M26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$1</f>
-        <v>750</v>
-      </c>
-      <c r="N26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="O26" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>23</v>
       </c>
@@ -2810,11 +2818,11 @@
       </c>
       <c r="F27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$1</f>
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$2</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -2827,17 +2835,17 @@
       </c>
       <c r="L27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$2</f>
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="M27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$1</f>
+        <v>1400</v>
+      </c>
+      <c r="O27" s="16">
         <v>700</v>
       </c>
-      <c r="N27" s="1">
-        <v>700</v>
-      </c>
     </row>
-    <row r="28" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>24</v>
       </c>
@@ -2853,11 +2861,11 @@
       </c>
       <c r="F28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$1</f>
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$2</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2870,17 +2878,17 @@
       </c>
       <c r="L28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$2</f>
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
+        <v>1400</v>
+      </c>
+      <c r="O28" s="8">
         <v>700</v>
       </c>
-      <c r="N28" s="1">
-        <v>700</v>
-      </c>
     </row>
-    <row r="29" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>25</v>
       </c>
@@ -2898,11 +2906,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
@@ -2913,17 +2921,17 @@
       </c>
       <c r="L29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$2</f>
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="M29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$1</f>
-        <v>1600</v>
-      </c>
-      <c r="N29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O29" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>26</v>
       </c>
@@ -2952,29 +2960,22 @@
       </c>
       <c r="K30" s="11">
         <f>'[25]MD20000.15-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45345</v>
       </c>
       <c r="L30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$2</f>
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="M30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$1</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="1">
-        <f>17*1400</f>
-        <v>23800</v>
+      <c r="O30" s="8">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="2">
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="6" r:id="rId1"/>
@@ -35,8 +35,9 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Code</t>
   </si>
@@ -205,18 +206,21 @@
   </si>
   <si>
     <t>L20000W17P1400-fri</t>
+  </si>
+  <si>
+    <t>INActive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,9 +351,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -361,22 +365,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,25 +398,31 @@
     <xf numFmtId="15" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +457,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -524,7 +534,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -532,25 +542,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="O1">
-            <v>17500</v>
+            <v>19250</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>66500</v>
+            <v>64750</v>
           </cell>
         </row>
         <row r="3">
@@ -559,39 +569,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD20000.18-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>63</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>11400</v>
+            <v>24000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>57</v>
+            <v>120</v>
           </cell>
           <cell r="O2">
-            <v>12600</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -606,32 +616,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD20000.22-DEC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>68</v>
+            <v>50</v>
           </cell>
           <cell r="O1">
-            <v>10400</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>52</v>
+            <v>70</v>
           </cell>
           <cell r="O2">
-            <v>13600</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="3">
@@ -646,7 +656,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -654,25 +664,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>2450</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14350</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -681,39 +691,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD5000-Jan24"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>1700</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>17</v>
+            <v>20</v>
           </cell>
           <cell r="O2">
-            <v>4300</v>
+            <v>4000</v>
           </cell>
         </row>
         <row r="3">
@@ -728,7 +738,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -736,25 +746,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>14700</v>
+            <v>14350</v>
           </cell>
         </row>
         <row r="3">
@@ -763,14 +773,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -778,25 +788,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>14700</v>
+            <v>14350</v>
           </cell>
         </row>
         <row r="3">
@@ -805,39 +815,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>1800</v>
+            <v>2150</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>4200</v>
+            <v>3850</v>
           </cell>
         </row>
         <row r="3">
@@ -852,32 +862,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>15050</v>
           </cell>
         </row>
         <row r="3">
@@ -892,7 +902,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -900,25 +910,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>1050</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>15750</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -927,14 +937,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -974,7 +984,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -982,26 +992,26 @@
       <sheetName val="SM5000.1-oct"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>38</v>
+            <v>35</v>
           </cell>
           <cell r="O1">
-            <v>2200</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>22</v>
+            <v>25</v>
           </cell>
           <cell r="O2">
-            <v>3800</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="3">
@@ -1016,32 +1026,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.20-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>1100</v>
+            <v>1450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>4900</v>
+            <v>4550</v>
           </cell>
         </row>
         <row r="3">
@@ -1056,32 +1066,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>106</v>
+            <v>100</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>14</v>
+            <v>20</v>
           </cell>
           <cell r="O2">
-            <v>10600</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="3">
@@ -1096,32 +1106,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
       <sheetName val="MD10000.1-OCT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>106</v>
+            <v>99</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>14</v>
+            <v>21</v>
           </cell>
           <cell r="O2">
-            <v>10600</v>
+            <v>9900</v>
           </cell>
         </row>
         <row r="3">
@@ -1136,7 +1146,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1144,25 +1154,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>3000</v>
+            <v>4400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>21000</v>
+            <v>19600</v>
           </cell>
         </row>
         <row r="3">
@@ -1171,14 +1181,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1186,25 +1196,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O2">
-            <v>22600</v>
+            <v>21200</v>
           </cell>
         </row>
         <row r="3">
@@ -1213,14 +1223,49 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.18-DEC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>30000</v>
+          </cell>
+          <cell r="K1">
+            <v>120</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>36000</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1260,7 +1305,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1300,7 +1345,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanform1"/>
@@ -1342,7 +1387,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1382,7 +1427,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1390,25 +1435,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="O1">
-            <v>12750</v>
+            <v>13800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="O2">
-            <v>5250</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="3">
@@ -1417,14 +1462,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1432,25 +1477,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="O1">
-            <v>12800</v>
+            <v>14200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>11200</v>
+            <v>9800</v>
           </cell>
         </row>
         <row r="3">
@@ -1459,14 +1504,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="loanForm"/>
@@ -1474,25 +1519,25 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1">
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O1">
-            <v>14200</v>
+            <v>15600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>9800</v>
+            <v>8400</v>
           </cell>
         </row>
         <row r="3">
@@ -1501,7 +1546,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1762,21 +1807,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -1791,37 +1836,37 @@
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="I2" s="18" t="s">
+      <c r="C2" s="24"/>
+      <c r="I2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="12">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="18">
         <f>SUM(L5:L48)</f>
-        <v>275850</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="O2" s="12">
-        <f>SUM(O9:O29)</f>
-        <v>15050</v>
+        <v>282900</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="1">
+        <f>SUM(N9:N35)</f>
+        <v>17850</v>
       </c>
       <c r="Q2" s="1">
         <f>14900+260750</f>
         <v>275650</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="18">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1831,7 +1876,7 @@
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="40.5" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1868,9 +1913,8 @@
       <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="22.5" customHeight="1">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1909,9 +1953,8 @@
         <f>'[1]SM5000.1-SEPT'!$O$1</f>
         <v>6000</v>
       </c>
-      <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="22.5" customHeight="1">
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -1950,9 +1993,8 @@
         <f>'[1]SM5000.1-oct'!$O$1</f>
         <v>6000</v>
       </c>
-      <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="22.5" customHeight="1">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1991,9 +2033,8 @@
         <f>'[2]MD10000.1-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="22.5" customHeight="1">
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -2032,9 +2073,8 @@
         <f>'[3]MD10000.1-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="22.5" customHeight="1">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -2073,9 +2113,11 @@
         <f>'[4]MD10000.20-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="N9" s="1">
+        <v>700</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="22.5" customHeight="1">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -2114,9 +2156,8 @@
         <f>'[5]SM5000.1-SEPT (2)'!$O$1</f>
         <v>6000</v>
       </c>
-      <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="22.5" customHeight="1">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -2155,9 +2196,8 @@
         <f>'[6]MD10000.20-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="22.5" customHeight="1">
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -2175,11 +2215,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -2190,17 +2230,17 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>5250</v>
+        <v>4200</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>12750</v>
-      </c>
-      <c r="O12" s="16">
+        <v>13800</v>
+      </c>
+      <c r="N12" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="22.5" customHeight="1">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -2218,11 +2258,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2233,17 +2273,17 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>11200</v>
+        <v>9800</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>12800</v>
-      </c>
-      <c r="O13" s="8">
+        <v>14200</v>
+      </c>
+      <c r="N13" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="22.5" customHeight="1">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -2261,11 +2301,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2276,17 +2316,17 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>14200</v>
-      </c>
-      <c r="O14" s="16">
+        <v>15600</v>
+      </c>
+      <c r="N14" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="22.5" customHeight="1">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -2304,11 +2344,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2319,17 +2359,17 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>66500</v>
+        <v>64750</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>17500</v>
-      </c>
-      <c r="O15" s="8">
+        <v>19250</v>
+      </c>
+      <c r="N15" s="1">
         <v>1750</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="22.5" customHeight="1">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -2345,16 +2385,16 @@
       </c>
       <c r="F16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$1</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
         <f>'[11]MD20000.18-DEC'!$K$2</f>
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K16" s="15">
         <f>'[11]MD20000.18-DEC'!$B$3</f>
@@ -2362,17 +2402,14 @@
       </c>
       <c r="L16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$2</f>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="M16" s="16">
         <f>'[11]MD20000.18-DEC'!$O$1</f>
-        <v>11400</v>
-      </c>
-      <c r="O16" s="16">
-        <v>1400</v>
+        <v>24000</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="22.5" customHeight="1">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -2388,11 +2425,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2405,17 +2442,17 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>13600</v>
+        <v>10000</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>10400</v>
-      </c>
-      <c r="O17" s="8">
+        <v>14000</v>
+      </c>
+      <c r="N17" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="22.5" customHeight="1">
       <c r="B18" s="13">
         <v>14</v>
       </c>
@@ -2433,11 +2470,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2448,17 +2485,17 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>14350</v>
+        <v>14000</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>2450</v>
-      </c>
-      <c r="O18" s="16">
+        <v>2800</v>
+      </c>
+      <c r="N18" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="22.5" customHeight="1">
       <c r="B19" s="6">
         <v>15</v>
       </c>
@@ -2474,11 +2511,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2491,17 +2528,17 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>1700</v>
-      </c>
-      <c r="O19" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="22.5" customHeight="1">
       <c r="B20" s="13">
         <v>16</v>
       </c>
@@ -2519,11 +2556,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2534,17 +2571,17 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>14700</v>
+        <v>14350</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>2100</v>
-      </c>
-      <c r="O20" s="16">
+        <v>2450</v>
+      </c>
+      <c r="N20" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="22.5" customHeight="1">
       <c r="B21" s="6">
         <v>17</v>
       </c>
@@ -2562,11 +2599,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2577,17 +2614,17 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>14700</v>
+        <v>14350</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>2100</v>
-      </c>
-      <c r="O21" s="8">
+        <v>2450</v>
+      </c>
+      <c r="N21" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="22.5" customHeight="1">
       <c r="B22" s="13">
         <v>18</v>
       </c>
@@ -2605,11 +2642,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2620,17 +2657,17 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>4200</v>
+        <v>3850</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>1800</v>
-      </c>
-      <c r="O22" s="16">
+        <v>2150</v>
+      </c>
+      <c r="N22" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="22.5" customHeight="1">
       <c r="B23" s="6">
         <v>19</v>
       </c>
@@ -2648,11 +2685,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2663,17 +2700,17 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>1400</v>
-      </c>
-      <c r="O23" s="8">
+        <v>1750</v>
+      </c>
+      <c r="N23" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="22.5" customHeight="1">
       <c r="B24" s="6">
         <v>20</v>
       </c>
@@ -2691,11 +2728,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
@@ -2706,17 +2743,17 @@
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
-        <v>1050</v>
-      </c>
-      <c r="O24" s="8">
+        <v>1400</v>
+      </c>
+      <c r="N24" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="22.5" customHeight="1">
       <c r="B25" s="6">
         <v>21</v>
       </c>
@@ -2732,11 +2769,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2749,17 +2786,17 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>2200</v>
-      </c>
-      <c r="O25" s="8">
+        <v>2500</v>
+      </c>
+      <c r="N25" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="22.5" customHeight="1">
       <c r="B26" s="6">
         <v>22</v>
       </c>
@@ -2777,11 +2814,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>12</v>
@@ -2792,17 +2829,17 @@
       </c>
       <c r="L26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$2</f>
-        <v>4900</v>
+        <v>4550</v>
       </c>
       <c r="M26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$1</f>
-        <v>1100</v>
-      </c>
-      <c r="O26" s="8">
+        <v>1450</v>
+      </c>
+      <c r="N26" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="13">
         <v>23</v>
       </c>
@@ -2818,11 +2855,11 @@
       </c>
       <c r="F27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$1</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$2</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -2835,17 +2872,17 @@
       </c>
       <c r="L27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$2</f>
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="M27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$1</f>
-        <v>1400</v>
-      </c>
-      <c r="O27" s="16">
+        <v>2000</v>
+      </c>
+      <c r="N27" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="22.5" customHeight="1">
       <c r="B28" s="6">
         <v>24</v>
       </c>
@@ -2861,11 +2898,11 @@
       </c>
       <c r="F28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$1</f>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$2</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2878,17 +2915,17 @@
       </c>
       <c r="L28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$2</f>
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
-        <v>1400</v>
-      </c>
-      <c r="O28" s="8">
+        <v>2100</v>
+      </c>
+      <c r="N28" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="22.5" customHeight="1">
       <c r="B29" s="6">
         <v>25</v>
       </c>
@@ -2906,11 +2943,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
@@ -2921,17 +2958,17 @@
       </c>
       <c r="L29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$2</f>
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="M29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$1</f>
-        <v>3000</v>
-      </c>
-      <c r="O29" s="8">
+        <v>4400</v>
+      </c>
+      <c r="N29" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="22.5" customHeight="1">
       <c r="B30" s="6">
         <v>26</v>
       </c>
@@ -2949,11 +2986,11 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>12</v>
@@ -2964,18 +3001,62 @@
       </c>
       <c r="L30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$2</f>
-        <v>22600</v>
+        <v>21200</v>
       </c>
       <c r="M30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$1</f>
+        <v>2800</v>
+      </c>
+      <c r="N30" s="1">
         <v>1400</v>
       </c>
-      <c r="O30" s="8">
-        <v>1400</v>
+    </row>
+    <row r="31" spans="2:14" ht="22.5" customHeight="1">
+      <c r="B31" s="13">
+        <v>27</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16">
+        <f>'[26]MD20000.18-DEC'!$C$1</f>
+        <v>30000</v>
+      </c>
+      <c r="F31" s="14">
+        <f>'[26]MD20000.18-DEC'!$K$1</f>
+        <v>120</v>
+      </c>
+      <c r="G31" s="14">
+        <f>'[26]MD20000.18-DEC'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="15">
+        <f>'[26]MD20000.18-DEC'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <f>'[26]MD20000.18-DEC'!$O$2</f>
+        <v>36000</v>
+      </c>
+      <c r="M31" s="16">
+        <f>'[26]MD20000.18-DEC'!$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -36,6 +36,7 @@
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>Code</t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t>INActive</t>
+  </si>
+  <si>
+    <t>RK Smitha</t>
   </si>
 </sst>
 </file>
@@ -549,18 +553,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="O1">
-            <v>19250</v>
+            <v>21000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="O2">
-            <v>64750</v>
+            <v>63000</v>
           </cell>
         </row>
         <row r="3">
@@ -630,18 +634,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>50</v>
+            <v>44</v>
           </cell>
           <cell r="O1">
-            <v>14000</v>
+            <v>15200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>70</v>
+            <v>76</v>
           </cell>
           <cell r="O2">
-            <v>10000</v>
+            <v>8800</v>
           </cell>
         </row>
         <row r="3">
@@ -671,18 +675,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>3150</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>14000</v>
+            <v>13650</v>
           </cell>
         </row>
         <row r="3">
@@ -712,18 +716,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="O1">
-            <v>2000</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="O2">
-            <v>4000</v>
+            <v>3900</v>
           </cell>
         </row>
         <row r="3">
@@ -753,18 +757,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>2450</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14350</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -795,18 +799,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>2450</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14350</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -836,18 +840,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="O1">
-            <v>2150</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>3850</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="3">
@@ -876,18 +880,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>2100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>15050</v>
+            <v>14700</v>
           </cell>
         </row>
         <row r="3">
@@ -917,18 +921,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="O1">
-            <v>1400</v>
+            <v>1750</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>15400</v>
+            <v>15050</v>
           </cell>
         </row>
         <row r="3">
@@ -1000,18 +1004,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="O1">
-            <v>2500</v>
+            <v>2900</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>25</v>
+            <v>29</v>
           </cell>
           <cell r="O2">
-            <v>3500</v>
+            <v>3100</v>
           </cell>
         </row>
         <row r="3">
@@ -1120,18 +1124,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>99</v>
+            <v>92</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>21</v>
+            <v>28</v>
           </cell>
           <cell r="O2">
-            <v>9900</v>
+            <v>9200</v>
           </cell>
         </row>
         <row r="3">
@@ -1161,18 +1165,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="O1">
-            <v>4400</v>
+            <v>5800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="O2">
-            <v>19600</v>
+            <v>18200</v>
           </cell>
         </row>
         <row r="3">
@@ -1203,18 +1207,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O2">
-            <v>21200</v>
+            <v>19800</v>
           </cell>
         </row>
         <row r="3">
@@ -1244,7 +1248,48 @@
             <v>30000</v>
           </cell>
           <cell r="K1">
-            <v>120</v>
+            <v>114</v>
+          </cell>
+          <cell r="O1">
+            <v>1800</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>6</v>
+          </cell>
+          <cell r="O2">
+            <v>34200</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45354</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.10-JAN"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
+          </cell>
+          <cell r="K1">
+            <v>48</v>
           </cell>
           <cell r="O1">
             <v>0</v>
@@ -1255,10 +1300,11 @@
             <v>0</v>
           </cell>
           <cell r="O2">
-            <v>36000</v>
+            <v>16800</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1442,18 +1488,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="O1">
-            <v>13800</v>
+            <v>14850</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>13</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>4200</v>
+            <v>3150</v>
           </cell>
         </row>
         <row r="3">
@@ -1484,18 +1530,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O1">
-            <v>14200</v>
+            <v>15600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>9800</v>
+            <v>8400</v>
           </cell>
         </row>
         <row r="3">
@@ -1526,18 +1572,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="O1">
-            <v>15600</v>
+            <v>17000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="O2">
-            <v>8400</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="3">
@@ -1807,7 +1853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1815,7 +1861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q31"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M2"/>
@@ -1854,12 +1900,12 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L48)</f>
-        <v>282900</v>
+        <v>285000</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="1">
         <f>SUM(N9:N35)</f>
-        <v>17850</v>
+        <v>18200</v>
       </c>
       <c r="Q2" s="1">
         <f>14900+260750</f>
@@ -2215,11 +2261,11 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>12</v>
@@ -2230,11 +2276,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>4200</v>
+        <v>3150</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>13800</v>
+        <v>14850</v>
       </c>
       <c r="N12" s="1">
         <v>1050</v>
@@ -2258,11 +2304,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2273,11 +2319,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="N13" s="1">
         <v>1400</v>
@@ -2301,11 +2347,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2316,11 +2362,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>15600</v>
+        <v>17000</v>
       </c>
       <c r="N14" s="1">
         <v>1400</v>
@@ -2344,11 +2390,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2359,11 +2405,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>64750</v>
+        <v>63000</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>19250</v>
+        <v>21000</v>
       </c>
       <c r="N15" s="1">
         <v>1750</v>
@@ -2425,11 +2471,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2442,11 +2488,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>10000</v>
+        <v>8800</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>14000</v>
+        <v>15200</v>
       </c>
       <c r="N17" s="1">
         <v>1400</v>
@@ -2470,11 +2516,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2485,11 +2531,11 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>14000</v>
+        <v>13650</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>2800</v>
+        <v>3150</v>
       </c>
       <c r="N18" s="1">
         <v>350</v>
@@ -2511,11 +2557,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2528,11 +2574,11 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N19" s="1">
         <v>700</v>
@@ -2556,11 +2602,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2571,11 +2617,11 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>14350</v>
+        <v>14000</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>2450</v>
+        <v>2800</v>
       </c>
       <c r="N20" s="1">
         <v>350</v>
@@ -2599,11 +2645,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2614,11 +2660,11 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>14350</v>
+        <v>14000</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>2450</v>
+        <v>2800</v>
       </c>
       <c r="N21" s="1">
         <v>350</v>
@@ -2642,11 +2688,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2657,11 +2703,11 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>3850</v>
+        <v>3500</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="N22" s="1">
         <v>350</v>
@@ -2685,11 +2731,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2700,11 +2746,11 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>15050</v>
+        <v>14700</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="N23" s="1">
         <v>350</v>
@@ -2728,11 +2774,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
@@ -2743,11 +2789,11 @@
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="N24" s="1">
         <v>350</v>
@@ -2769,11 +2815,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2786,11 +2832,11 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N25" s="1">
         <v>700</v>
@@ -2898,11 +2944,11 @@
       </c>
       <c r="F28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$1</f>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$2</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2915,11 +2961,11 @@
       </c>
       <c r="L28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$2</f>
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N28" s="1">
         <v>700</v>
@@ -2943,11 +2989,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
@@ -2958,11 +3004,11 @@
       </c>
       <c r="L29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$2</f>
-        <v>19600</v>
+        <v>18200</v>
       </c>
       <c r="M29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$1</f>
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="N29" s="1">
         <v>1400</v>
@@ -2986,11 +3032,11 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>12</v>
@@ -3001,11 +3047,11 @@
       </c>
       <c r="L30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$2</f>
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="M30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$1</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="N30" s="1">
         <v>1400</v>
@@ -3027,11 +3073,11 @@
       </c>
       <c r="F31" s="14">
         <f>'[26]MD20000.18-DEC'!$K$1</f>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G31" s="14">
         <f>'[26]MD20000.18-DEC'!$K$2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -3040,18 +3086,61 @@
       </c>
       <c r="K31" s="15">
         <f>'[26]MD20000.18-DEC'!$B$3</f>
-        <v>0</v>
+        <v>45354</v>
       </c>
       <c r="L31" s="16">
         <f>'[26]MD20000.18-DEC'!$O$2</f>
-        <v>36000</v>
+        <v>34200</v>
       </c>
       <c r="M31" s="16">
         <f>'[26]MD20000.18-DEC'!$O$1</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N31" s="1">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="22.5" customHeight="1">
+      <c r="B32" s="13">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="16">
+        <f>'[27]MD10000.10-JAN'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14">
+        <f>'[27]MD10000.10-JAN'!$K$1</f>
+        <v>48</v>
+      </c>
+      <c r="I32" s="14">
+        <f>'[27]MD10000.10-JAN'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="15">
+        <f>'[27]MD10000.10-JAN'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <f>'[27]MD10000.10-JAN'!$O$2</f>
+        <v>16800</v>
+      </c>
+      <c r="M32" s="16">
+        <f>'[27]MD10000.10-JAN'!$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/LoanOfficer-A/LoanBook.xlsx
+++ b/LoanOfficer-A/LoanBook.xlsx
@@ -37,6 +37,7 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Code</t>
   </si>
@@ -553,18 +554,18 @@
             <v>50000</v>
           </cell>
           <cell r="K1">
-            <v>36</v>
+            <v>34</v>
           </cell>
           <cell r="O1">
-            <v>21000</v>
+            <v>24500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>12</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>63000</v>
+            <v>59500</v>
           </cell>
         </row>
         <row r="3">
@@ -634,18 +635,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>44</v>
+            <v>32</v>
           </cell>
           <cell r="O1">
-            <v>15200</v>
+            <v>17600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>76</v>
+            <v>88</v>
           </cell>
           <cell r="O2">
-            <v>8800</v>
+            <v>6400</v>
           </cell>
         </row>
         <row r="3">
@@ -675,18 +676,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>39</v>
+            <v>37</v>
           </cell>
           <cell r="O1">
-            <v>3150</v>
+            <v>3850</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>9</v>
+            <v>11</v>
           </cell>
           <cell r="O2">
-            <v>13650</v>
+            <v>12950</v>
           </cell>
         </row>
         <row r="3">
@@ -716,18 +717,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>39</v>
+            <v>33</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2700</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>21</v>
+            <v>27</v>
           </cell>
           <cell r="O2">
-            <v>3900</v>
+            <v>3300</v>
           </cell>
         </row>
         <row r="3">
@@ -757,18 +758,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>38</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>14000</v>
+            <v>13300</v>
           </cell>
         </row>
         <row r="3">
@@ -799,18 +800,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>40</v>
+            <v>38</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="O2">
-            <v>14000</v>
+            <v>13300</v>
           </cell>
         </row>
         <row r="3">
@@ -840,18 +841,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="O1">
-            <v>2500</v>
+            <v>3200</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>7</v>
+            <v>9</v>
           </cell>
           <cell r="O2">
-            <v>3500</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="3">
@@ -880,18 +881,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>42</v>
+            <v>40</v>
           </cell>
           <cell r="O1">
-            <v>2100</v>
+            <v>2800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="O2">
-            <v>14700</v>
+            <v>14000</v>
           </cell>
         </row>
         <row r="3">
@@ -921,18 +922,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>43</v>
+            <v>41</v>
           </cell>
           <cell r="O1">
-            <v>1750</v>
+            <v>2450</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="O2">
-            <v>15050</v>
+            <v>14350</v>
           </cell>
         </row>
         <row r="3">
@@ -1004,18 +1005,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="O1">
-            <v>2900</v>
+            <v>3100</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>29</v>
+            <v>31</v>
           </cell>
           <cell r="O2">
-            <v>3100</v>
+            <v>2900</v>
           </cell>
         </row>
         <row r="3">
@@ -1044,18 +1045,18 @@
             <v>5000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>1450</v>
+            <v>2150</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>4550</v>
+            <v>3850</v>
           </cell>
         </row>
         <row r="3">
@@ -1084,18 +1085,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>100</v>
+            <v>85</v>
           </cell>
           <cell r="O1">
-            <v>2000</v>
+            <v>3500</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>20</v>
+            <v>35</v>
           </cell>
           <cell r="O2">
-            <v>10000</v>
+            <v>8500</v>
           </cell>
         </row>
         <row r="3">
@@ -1124,18 +1125,18 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>92</v>
+            <v>80</v>
           </cell>
           <cell r="O1">
-            <v>2800</v>
+            <v>4000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>28</v>
+            <v>40</v>
           </cell>
           <cell r="O2">
-            <v>9200</v>
+            <v>8000</v>
           </cell>
         </row>
         <row r="3">
@@ -1165,18 +1166,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="O1">
-            <v>5800</v>
+            <v>8600</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="O2">
-            <v>18200</v>
+            <v>15400</v>
           </cell>
         </row>
         <row r="3">
@@ -1207,18 +1208,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>14</v>
+            <v>12</v>
           </cell>
           <cell r="O1">
-            <v>4200</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="O2">
-            <v>19800</v>
+            <v>17000</v>
           </cell>
         </row>
         <row r="3">
@@ -1248,18 +1249,18 @@
             <v>30000</v>
           </cell>
           <cell r="K1">
-            <v>114</v>
+            <v>102</v>
           </cell>
           <cell r="O1">
-            <v>1800</v>
+            <v>5400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>6</v>
+            <v>18</v>
           </cell>
           <cell r="O2">
-            <v>34200</v>
+            <v>30600</v>
           </cell>
         </row>
         <row r="3">
@@ -1289,7 +1290,49 @@
             <v>10000</v>
           </cell>
           <cell r="K1">
-            <v>48</v>
+            <v>46</v>
+          </cell>
+          <cell r="O1">
+            <v>700</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2">
+            <v>2</v>
+          </cell>
+          <cell r="O2">
+            <v>16100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>45366</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD20000.15-DEc"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>20000</v>
+          </cell>
+          <cell r="K1">
+            <v>17</v>
           </cell>
           <cell r="O1">
             <v>0</v>
@@ -1300,11 +1343,11 @@
             <v>0</v>
           </cell>
           <cell r="O2">
-            <v>16800</v>
+            <v>24000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1488,18 +1531,18 @@
             <v>15000</v>
           </cell>
           <cell r="K1">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="O1">
-            <v>14850</v>
+            <v>18000</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>14</v>
+            <v>17</v>
           </cell>
           <cell r="O2">
-            <v>3150</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1530,18 +1573,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="O1">
-            <v>15600</v>
+            <v>18400</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="O2">
-            <v>8400</v>
+            <v>5600</v>
           </cell>
         </row>
         <row r="3">
@@ -1572,18 +1615,18 @@
             <v>20000</v>
           </cell>
           <cell r="K1">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="O1">
-            <v>17000</v>
+            <v>19800</v>
           </cell>
         </row>
         <row r="2">
           <cell r="K2">
-            <v>12</v>
+            <v>14</v>
           </cell>
           <cell r="O2">
-            <v>7000</v>
+            <v>4200</v>
           </cell>
         </row>
         <row r="3">
@@ -1853,7 +1896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1861,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M2"/>
@@ -1900,12 +1943,12 @@
       <c r="K2" s="22"/>
       <c r="L2" s="18">
         <f>SUM(L5:L48)</f>
-        <v>285000</v>
+        <v>276050</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="1">
         <f>SUM(N9:N35)</f>
-        <v>18200</v>
+        <v>17850</v>
       </c>
       <c r="Q2" s="1">
         <f>14900+260750</f>
@@ -2159,9 +2202,6 @@
         <f>'[4]MD10000.20-OCT'!$O$1</f>
         <v>12000</v>
       </c>
-      <c r="N9" s="1">
-        <v>700</v>
-      </c>
     </row>
     <row r="10" spans="2:17" ht="22.5" customHeight="1">
       <c r="B10" s="13">
@@ -2261,14 +2301,14 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="14">
         <f>'[7]MD15000.27-NOV'!$K$2</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K12" s="15">
         <f>'[7]MD15000.27-NOV'!$B$3</f>
@@ -2276,14 +2316,11 @@
       </c>
       <c r="L12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$2</f>
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="M12" s="16">
         <f>'[7]MD15000.27-NOV'!$O$1</f>
-        <v>14850</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1050</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="22.5" customHeight="1">
@@ -2304,11 +2341,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="9">
         <f>'[8]MD20000.15-DEC'!$K$2</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2319,11 +2356,11 @@
       </c>
       <c r="L13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$2</f>
-        <v>8400</v>
+        <v>5600</v>
       </c>
       <c r="M13" s="8">
         <f>'[8]MD20000.15-DEC'!$O$1</f>
-        <v>15600</v>
+        <v>18400</v>
       </c>
       <c r="N13" s="1">
         <v>1400</v>
@@ -2347,11 +2384,11 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="14">
         <f>'[9]MD20000.15-DEc'!$K$2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>12</v>
@@ -2362,11 +2399,11 @@
       </c>
       <c r="L14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$2</f>
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="M14" s="16">
         <f>'[9]MD20000.15-DEc'!$O$1</f>
-        <v>17000</v>
+        <v>19800</v>
       </c>
       <c r="N14" s="1">
         <v>1400</v>
@@ -2390,11 +2427,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9">
         <f>'[10]MD50000.15-DEC'!$K$2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>12</v>
@@ -2405,11 +2442,11 @@
       </c>
       <c r="L15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$2</f>
-        <v>63000</v>
+        <v>59500</v>
       </c>
       <c r="M15" s="8">
         <f>'[10]MD50000.15-DEC'!$O$1</f>
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="N15" s="1">
         <v>1750</v>
@@ -2471,11 +2508,11 @@
       </c>
       <c r="F17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$1</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G17" s="9">
         <f>'[12]MD20000.22-DEC'!$K$2</f>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2488,11 +2525,11 @@
       </c>
       <c r="L17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$2</f>
-        <v>8800</v>
+        <v>6400</v>
       </c>
       <c r="M17" s="8">
         <f>'[12]MD20000.22-DEC'!$O$1</f>
-        <v>15200</v>
+        <v>17600</v>
       </c>
       <c r="N17" s="1">
         <v>1400</v>
@@ -2516,11 +2553,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="14">
         <f>'[13]MD50000.15-DEC'!$K$2</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>12</v>
@@ -2531,11 +2568,11 @@
       </c>
       <c r="L18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$2</f>
-        <v>13650</v>
+        <v>12950</v>
       </c>
       <c r="M18" s="16">
         <f>'[13]MD50000.15-DEC'!$O$1</f>
-        <v>3150</v>
+        <v>3850</v>
       </c>
       <c r="N18" s="1">
         <v>350</v>
@@ -2557,11 +2594,11 @@
       </c>
       <c r="F19" s="9">
         <f>'[14]MD5000-Jan24'!$K$1</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" s="9">
         <f>'[14]MD5000-Jan24'!$K$2</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2574,11 +2611,11 @@
       </c>
       <c r="L19" s="8">
         <f>'[14]MD5000-Jan24'!$O$2</f>
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="M19" s="8">
         <f>'[14]MD5000-Jan24'!$O$1</f>
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="N19" s="1">
         <v>700</v>
@@ -2602,11 +2639,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="14">
         <f>'[15]MD10000.10-JAN'!$K$2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2617,11 +2654,11 @@
       </c>
       <c r="L20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$2</f>
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="M20" s="16">
         <f>'[15]MD10000.10-JAN'!$O$1</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N20" s="1">
         <v>350</v>
@@ -2645,11 +2682,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9">
         <f>'[16]MD10000.10-JAN'!$K$2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>12</v>
@@ -2660,11 +2697,11 @@
       </c>
       <c r="L21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$2</f>
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="M21" s="8">
         <f>'[16]MD10000.10-JAN'!$O$1</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N21" s="1">
         <v>350</v>
@@ -2688,11 +2725,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" s="14">
         <f>'[17]MD10000.20-OCT'!$K$2</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>12</v>
@@ -2703,11 +2740,11 @@
       </c>
       <c r="L22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$2</f>
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M22" s="16">
         <f>'[17]MD10000.20-OCT'!$O$1</f>
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="N22" s="1">
         <v>350</v>
@@ -2731,11 +2768,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9">
         <f>'[18]MD10000.20-OCT'!$K$2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>12</v>
@@ -2746,11 +2783,11 @@
       </c>
       <c r="L23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$2</f>
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="M23" s="8">
         <f>'[18]MD10000.20-OCT'!$O$1</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N23" s="1">
         <v>350</v>
@@ -2774,11 +2811,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9">
         <f>'[19]MD10000.20-OCT'!$K$2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>12</v>
@@ -2789,11 +2826,11 @@
       </c>
       <c r="L24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$2</f>
-        <v>15050</v>
+        <v>14350</v>
       </c>
       <c r="M24" s="8">
         <f>'[19]MD10000.20-OCT'!$O$1</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="N24" s="1">
         <v>350</v>
@@ -2815,11 +2852,11 @@
       </c>
       <c r="F25" s="9">
         <f>'[20]SM5000.1-oct'!$K$1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="9">
         <f>'[20]SM5000.1-oct'!$K$2</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2832,11 +2869,11 @@
       </c>
       <c r="L25" s="8">
         <f>'[20]SM5000.1-oct'!$O$2</f>
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="M25" s="8">
         <f>'[20]SM5000.1-oct'!$O$1</f>
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="N25" s="1">
         <v>700</v>
@@ -2860,11 +2897,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9">
         <f>'[21]MD10000.20-OCT'!$K$2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>12</v>
@@ -2875,11 +2912,11 @@
       </c>
       <c r="L26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$2</f>
-        <v>4550</v>
+        <v>3850</v>
       </c>
       <c r="M26" s="8">
         <f>'[21]MD10000.20-OCT'!$O$1</f>
-        <v>1450</v>
+        <v>2150</v>
       </c>
       <c r="N26" s="1">
         <v>350</v>
@@ -2901,11 +2938,11 @@
       </c>
       <c r="F27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$1</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G27" s="14">
         <f>'[22]MD10000.1-OCT'!$K$2</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -2918,11 +2955,11 @@
       </c>
       <c r="L27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$2</f>
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M27" s="16">
         <f>'[22]MD10000.1-OCT'!$O$1</f>
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N27" s="1">
         <v>700</v>
@@ -2944,11 +2981,11 @@
       </c>
       <c r="F28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$1</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G28" s="9">
         <f>'[23]MD10000.1-OCT'!$K$2</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2961,11 +2998,11 @@
       </c>
       <c r="L28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$2</f>
-        <v>9200</v>
+        <v>8000</v>
       </c>
       <c r="M28" s="8">
         <f>'[23]MD10000.1-OCT'!$O$1</f>
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="N28" s="1">
         <v>700</v>
@@ -2989,11 +3026,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9">
         <f>'[24]MD20000.15-DEC'!$K$2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
@@ -3004,11 +3041,11 @@
       </c>
       <c r="L29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$2</f>
-        <v>18200</v>
+        <v>15400</v>
       </c>
       <c r="M29" s="8">
         <f>'[24]MD20000.15-DEC'!$O$1</f>
-        <v>5800</v>
+        <v>8600</v>
       </c>
       <c r="N29" s="1">
         <v>1400</v>
@@ -3032,11 +3069,11 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9">
         <f>'[25]MD20000.15-DEC'!$K$2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>12</v>
@@ -3047,11 +3084,11 @@
       </c>
       <c r="L30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$2</f>
-        <v>19800</v>
+        <v>17000</v>
       </c>
       <c r="M30" s="8">
         <f>'[25]MD20000.15-DEC'!$O$1</f>
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="N30" s="1">
         <v>1400</v>
@@ -3073,11 +3110,11 @@
       </c>
       <c r="F31" s="14">
         <f>'[26]MD20000.18-DEC'!$K$1</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G31" s="14">
         <f>'[26]MD20000.18-DEC'!$K$2</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -3090,11 +3127,11 @@
       </c>
       <c r="L31" s="16">
         <f>'[26]MD20000.18-DEC'!$O$2</f>
-        <v>34200</v>
+        <v>30600</v>
       </c>
       <c r="M31" s="16">
         <f>'[26]MD20000.18-DEC'!$O$1</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="N31" s="1">
         <v>2100</v>
@@ -3118,29 +3155,72 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14">
         <f>'[27]MD10000.10-JAN'!$K$1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I32" s="14">
         <f>'[27]MD10000.10-JAN'!$K$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K32" s="15">
         <f>'[27]MD10000.10-JAN'!$B$3</f>
-        <v>0</v>
+        <v>45366</v>
       </c>
       <c r="L32" s="16">
         <f>'[27]MD10000.10-JAN'!$O$2</f>
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="M32" s="16">
         <f>'[27]MD10000.10-JAN'!$O$1</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N32" s="1">
         <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="22.5" customHeight="1">
+      <c r="B33" s="13">
+        <v>29</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="16">
+        <f>'[28]MD20000.15-DEc'!$C$1</f>
+        <v>20000</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <f>'[28]MD20000.15-DEc'!$K$1</f>
+        <v>17</v>
+      </c>
+      <c r="I33" s="14">
+        <f>'[28]MD20000.15-DEc'!$K$2</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="15">
+        <f>'[28]MD20000.15-DEc'!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <f>'[28]MD20000.15-DEc'!$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="M33" s="16">
+        <f>'[28]MD20000.15-DEc'!$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
